--- a/parameter_search_results/random_search.xlsx
+++ b/parameter_search_results/random_search.xlsx
@@ -527,2078 +527,2078 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.594728310902913</v>
+        <v>2.431483586629232</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3560293061749876</v>
+        <v>0.08193788260606197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08653720219930013</v>
+        <v>0.02553367614746094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009312548733751173</v>
+        <v>0.003425921596189741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.522587291521871</v>
+        <v>0.341479219414335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2880569241289342</v>
+        <v>0.2024631057049564</v>
       </c>
       <c r="G2" t="n">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>419</v>
+        <v>163</v>
       </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.522587291521871), 'learning_rate': np.float64(0.2880569241289342), 'max_bins': 119, 'max_depth': 10, 'max_iter': 419, 'max_leaf_nodes': 44, 'min_samples_leaf': 4}</t>
+          <t>{'l2_regularization': np.float64(0.341479219414335), 'learning_rate': np.float64(0.20246310570495643), 'max_bins': 183, 'max_depth': 7, 'max_iter': 163, 'max_leaf_nodes': 22, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.55</v>
+        <v>0.5175</v>
       </c>
       <c r="N2" t="n">
-        <v>0.555</v>
+        <v>0.575</v>
       </c>
       <c r="O2" t="n">
         <v>0.575</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5599999999999999</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01080123449734639</v>
+        <v>0.02710575994548432</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9426465829213461</v>
+        <v>2.927242437998454</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07061892573584186</v>
+        <v>0.3072283069540059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01574897766113281</v>
+        <v>0.04188211758931478</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002234640867399514</v>
+        <v>0.00661208279690988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3741357236511013</v>
+        <v>0.5539170506827479</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2842884812938449</v>
+        <v>0.3076494835434418</v>
       </c>
       <c r="G3" t="n">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="J3" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.37413572365110126), 'learning_rate': np.float64(0.2842884812938449), 'max_bins': 189, 'max_depth': 9, 'max_iter': 95, 'max_leaf_nodes': 93, 'min_samples_leaf': 15}</t>
+          <t>{'l2_regularization': np.float64(0.5539170506827479), 'learning_rate': np.float64(0.3076494835434418), 'max_bins': 220, 'max_depth': 5, 'max_iter': 248, 'max_leaf_nodes': 51, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5675</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5675</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5541666666666667</v>
+        <v>0.5491666666666667</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01711886548681176</v>
+        <v>0.02084999333866134</v>
       </c>
       <c r="R3" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.894497712453206</v>
+        <v>6.304665406545003</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01700206707896833</v>
+        <v>0.1688624783099521</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02327473958333333</v>
+        <v>0.0656430721282959</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001255818551505898</v>
+        <v>0.009533167007611336</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6426494212197807</v>
+        <v>0.1443269983926661</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02612841455454634</v>
+        <v>0.05123252567175676</v>
       </c>
       <c r="G4" t="n">
         <v>229</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>160</v>
+        <v>470</v>
       </c>
       <c r="J4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="K4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6426494212197807), 'learning_rate': np.float64(0.026128414554546335), 'max_bins': 229, 'max_depth': 10, 'max_iter': 160, 'max_leaf_nodes': 59, 'min_samples_leaf': 14}</t>
+          <t>{'l2_regularization': np.float64(0.14432699839266605), 'learning_rate': np.float64(0.05123252567175676), 'max_bins': 229, 'max_depth': 8, 'max_iter': 470, 'max_leaf_nodes': 22, 'min_samples_leaf': 8}</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.5475</v>
+        <v>0.54</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5625</v>
+        <v>0.5875</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5825</v>
+        <v>0.575</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5675</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01433720877840439</v>
+        <v>0.02010389680302468</v>
       </c>
       <c r="R4" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.624022960662842</v>
+        <v>0.439315398534139</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1864752057156569</v>
+        <v>0.05316754301791023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02689043680826823</v>
+        <v>0.01140443483988444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000734248955097876</v>
+        <v>0.000865287766653765</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8925338470931421</v>
+        <v>0.8011225391228786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03398979815206395</v>
+        <v>0.3057815408326359</v>
       </c>
       <c r="G5" t="n">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="J5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8925338470931421), 'learning_rate': np.float64(0.03398979815206395), 'max_bins': 234, 'max_depth': 6, 'max_iter': 206, 'max_leaf_nodes': 48, 'min_samples_leaf': 7}</t>
+          <t>{'l2_regularization': np.float64(0.8011225391228786), 'learning_rate': np.float64(0.3057815408326359), 'max_bins': 190, 'max_depth': 3, 'max_iter': 118, 'max_leaf_nodes': 44, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="M5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.5575</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.58</v>
-      </c>
       <c r="O5" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5675</v>
+        <v>0.5425</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.009354143466934842</v>
+        <v>0.01136515141415487</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.2693507671356201</v>
+        <v>0.6973630587259928</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01307228736729755</v>
+        <v>0.1183200282267789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009459733963012695</v>
+        <v>0.01942539215087891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009713400170325821</v>
+        <v>0.006560090838962819</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2859482238099785</v>
+        <v>0.1849352777243812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07455087874230792</v>
+        <v>0.02248860496533164</v>
       </c>
       <c r="G6" t="n">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.28594822380997853), 'learning_rate': np.float64(0.07455087874230792), 'max_bins': 236, 'max_depth': 3, 'max_iter': 77, 'max_leaf_nodes': 55, 'min_samples_leaf': 8}</t>
+          <t>{'l2_regularization': np.float64(0.18493527772438123), 'learning_rate': np.float64(0.02248860496533164), 'max_bins': 153, 'max_depth': 9, 'max_iter': 78, 'max_leaf_nodes': 80, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0.52</v>
+        <v>0.5425</v>
       </c>
       <c r="N6" t="n">
+        <v>0.5725</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.5775</v>
       </c>
-      <c r="O6" t="n">
-        <v>0.545</v>
-      </c>
       <c r="P6" t="n">
-        <v>0.5475</v>
+        <v>0.5641666666666666</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02354074481970922</v>
+        <v>0.01545603082582619</v>
       </c>
       <c r="R6" t="n">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.670311053593954</v>
+        <v>2.177669684092204</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2384145342876599</v>
+        <v>0.06404401040497021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07108918825785319</v>
+        <v>0.04457966486612955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002084270085144278</v>
+        <v>0.01548328611428847</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4967652398654759</v>
+        <v>0.500431649576124</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2426862706627145</v>
+        <v>0.05349958584447859</v>
       </c>
       <c r="G7" t="n">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>458</v>
+        <v>305</v>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.49676523986547594), 'learning_rate': np.float64(0.2426862706627145), 'max_bins': 242, 'max_depth': 13, 'max_iter': 458, 'max_leaf_nodes': 75, 'min_samples_leaf': 7}</t>
+          <t>{'l2_regularization': np.float64(0.500431649576124), 'learning_rate': np.float64(0.053499585844478593), 'max_bins': 102, 'max_depth': 5, 'max_iter': 305, 'max_leaf_nodes': 21, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>0.5725</v>
+        <v>0.5375</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5725</v>
+        <v>0.57</v>
       </c>
       <c r="O7" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005892556509887875</v>
+        <v>0.01359125535858341</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.742457389831543</v>
+        <v>7.412019650141398</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1299218756997872</v>
+        <v>0.3862788818012801</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01796507835388184</v>
+        <v>0.07901263236999512</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003906797234946888</v>
+        <v>0.01352211868938843</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5207927716399785</v>
+        <v>0.6246082457386986</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1143490627592343</v>
+        <v>0.01863665671287756</v>
       </c>
       <c r="G8" t="n">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>483</v>
+      </c>
+      <c r="J8" t="n">
+        <v>99</v>
+      </c>
+      <c r="K8" t="n">
         <v>13</v>
       </c>
-      <c r="I8" t="n">
-        <v>98</v>
-      </c>
-      <c r="J8" t="n">
-        <v>36</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5207927716399785), 'learning_rate': np.float64(0.11434906275923429), 'max_bins': 161, 'max_depth': 13, 'max_iter': 98, 'max_leaf_nodes': 36, 'min_samples_leaf': 3}</t>
+          <t>{'l2_regularization': np.float64(0.6246082457386986), 'learning_rate': np.float64(0.018636656712877564), 'max_bins': 243, 'max_depth': 8, 'max_iter': 483, 'max_leaf_nodes': 99, 'min_samples_leaf': 13}</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0.5475</v>
+        <v>0.5325</v>
       </c>
       <c r="N8" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5608333333333333</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.009646530752325171</v>
+        <v>0.01759892673495239</v>
       </c>
       <c r="R8" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.862339655558269</v>
+        <v>1.038410902023315</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2840962011635293</v>
+        <v>0.08722479418511989</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0890357494354248</v>
+        <v>0.03624796867370605</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0190171112209752</v>
+        <v>0.01079855668190555</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3137707520152829</v>
+        <v>0.7373681718369733</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08921907316759094</v>
+        <v>0.1304083410149264</v>
       </c>
       <c r="G9" t="n">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>499</v>
+        <v>274</v>
       </c>
       <c r="J9" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.3137707520152829), 'learning_rate': np.float64(0.08921907316759094), 'max_bins': 168, 'max_depth': 8, 'max_iter': 499, 'max_leaf_nodes': 27, 'min_samples_leaf': 2}</t>
+          <t>{'l2_regularization': np.float64(0.7373681718369733), 'learning_rate': np.float64(0.13040834101492643), 'max_bins': 124, 'max_depth': 4, 'max_iter': 274, 'max_leaf_nodes': 35, 'min_samples_leaf': 14}</t>
         </is>
       </c>
       <c r="M9" t="n">
+        <v>0.5325</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.545</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.5825</v>
-      </c>
       <c r="O9" t="n">
-        <v>0.5725</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5458333333333334</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01585524799203369</v>
+        <v>0.0112422813026934</v>
       </c>
       <c r="R9" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.269110520680745</v>
+        <v>1.526669025421143</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3340040203161243</v>
+        <v>0.1777500492369549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06826980908711751</v>
+        <v>0.02314345041910807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01092929807559601</v>
+        <v>0.001729944403338781</v>
       </c>
       <c r="E10" t="n">
-        <v>0.875521654283358</v>
+        <v>0.281823233484641</v>
       </c>
       <c r="F10" t="n">
-        <v>0.10175327889927</v>
+        <v>0.273284749282389</v>
       </c>
       <c r="G10" t="n">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>453</v>
+        <v>171</v>
       </c>
       <c r="J10" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.875521654283358), 'learning_rate': np.float64(0.10175327889926998), 'max_bins': 212, 'max_depth': 11, 'max_iter': 453, 'max_leaf_nodes': 38, 'min_samples_leaf': 17}</t>
+          <t>{'l2_regularization': np.float64(0.281823233484641), 'learning_rate': np.float64(0.273284749282389), 'max_bins': 177, 'max_depth': 6, 'max_iter': 171, 'max_leaf_nodes': 51, 'min_samples_leaf': 13}</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5575</v>
+        <v>0.5775</v>
       </c>
       <c r="O10" t="n">
-        <v>0.59</v>
+        <v>0.555</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5608333333333334</v>
+        <v>0.5575000000000001</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02257702864024009</v>
+        <v>0.01541103500742243</v>
       </c>
       <c r="R10" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.305047194163004</v>
+        <v>1.157894849777222</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03697501810160687</v>
+        <v>0.1235353954640823</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01970354715983073</v>
+        <v>0.02893702189127604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002698509581839519</v>
+        <v>0.0009734103443945167</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2278313027251312</v>
+        <v>0.9708058183079785</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2496527119659252</v>
+        <v>0.2116875981174469</v>
       </c>
       <c r="G11" t="n">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>128</v>
+      </c>
+      <c r="J11" t="n">
+        <v>94</v>
+      </c>
+      <c r="K11" t="n">
         <v>11</v>
       </c>
-      <c r="I11" t="n">
-        <v>118</v>
-      </c>
-      <c r="J11" t="n">
-        <v>46</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.2278313027251312), 'learning_rate': np.float64(0.24965271196592517), 'max_bins': 206, 'max_depth': 11, 'max_iter': 118, 'max_leaf_nodes': 46, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.9708058183079785), 'learning_rate': np.float64(0.2116875981174469), 'max_bins': 104, 'max_depth': 6, 'max_iter': 128, 'max_leaf_nodes': 94, 'min_samples_leaf': 11}</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0.5525</v>
+        <v>0.535</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5725</v>
+        <v>0.5875</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5725</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5658333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009428090415820642</v>
+        <v>0.02150581316760656</v>
       </c>
       <c r="R11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.570172468821208</v>
+        <v>2.755414724349976</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3706514918139199</v>
+        <v>0.2798167227902104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07944202423095703</v>
+        <v>0.06364885965983073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01462099669952751</v>
+        <v>0.01029218160736873</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7796940174994632</v>
+        <v>0.02690794742027347</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2400770589635143</v>
+        <v>0.2724628092080461</v>
       </c>
       <c r="G12" t="n">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>495</v>
+        <v>436</v>
       </c>
       <c r="J12" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K12" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.7796940174994632), 'learning_rate': np.float64(0.24007705896351425), 'max_bins': 246, 'max_depth': 7, 'max_iter': 495, 'max_leaf_nodes': 95, 'min_samples_leaf': 12}</t>
+          <t>{'l2_regularization': np.float64(0.02690794742027347), 'learning_rate': np.float64(0.2724628092080461), 'max_bins': 181, 'max_depth': 5, 'max_iter': 436, 'max_leaf_nodes': 87, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0.5525</v>
+        <v>0.515</v>
       </c>
       <c r="N12" t="n">
-        <v>0.555</v>
+        <v>0.5575</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5475</v>
+        <v>0.5725</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5516666666666666</v>
+        <v>0.5483333333333333</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00311804782231164</v>
+        <v>0.02435273199367076</v>
       </c>
       <c r="R12" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.209565877914429</v>
+        <v>5.291362524032593</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03176518041506953</v>
+        <v>0.303733152439831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02338616053263346</v>
+        <v>0.05938665072123209</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003823795913503936</v>
+        <v>0.002054904540744848</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8661290075981009</v>
+        <v>0.3325363491959441</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2143515012780562</v>
+        <v>0.11646453137956</v>
       </c>
       <c r="G13" t="n">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>142</v>
+        <v>442</v>
       </c>
       <c r="J13" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8661290075981009), 'learning_rate': np.float64(0.21435150127805616), 'max_bins': 117, 'max_depth': 12, 'max_iter': 142, 'max_leaf_nodes': 51, 'min_samples_leaf': 12}</t>
+          <t>{'l2_regularization': np.float64(0.3325363491959441), 'learning_rate': np.float64(0.11646453137956), 'max_bins': 185, 'max_depth': 9, 'max_iter': 442, 'max_leaf_nodes': 29, 'min_samples_leaf': 10}</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>0.55</v>
+        <v>0.5475</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5725</v>
+        <v>0.5775</v>
       </c>
       <c r="O13" t="n">
-        <v>0.59</v>
+        <v>0.5775</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.5675</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01637240225365705</v>
+        <v>0.01414213562373096</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.9590904712677</v>
+        <v>4.072920083999634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1546209554848361</v>
+        <v>0.02224897554353685</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07039801279703777</v>
+        <v>0.03850301106770834</v>
       </c>
       <c r="D14" t="n">
-        <v>0.011479946404373</v>
+        <v>0.006313942008910154</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6623694551068234</v>
+        <v>0.05542050943752808</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05128584857350382</v>
+        <v>0.09441829683915853</v>
       </c>
       <c r="G14" t="n">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>468</v>
+        <v>208</v>
       </c>
       <c r="J14" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6623694551068234), 'learning_rate': np.float64(0.051285848573503816), 'max_bins': 115, 'max_depth': 14, 'max_iter': 468, 'max_leaf_nodes': 74, 'min_samples_leaf': 19}</t>
+          <t>{'l2_regularization': np.float64(0.055420509437528076), 'learning_rate': np.float64(0.09441829683915853), 'max_bins': 165, 'max_depth': 13, 'max_iter': 208, 'max_leaf_nodes': 65, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N14" t="n">
-        <v>0.54</v>
+        <v>0.5625</v>
       </c>
       <c r="O14" t="n">
-        <v>0.595</v>
+        <v>0.5675</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5616666666666666</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02392116682401218</v>
+        <v>0.003118047822311601</v>
       </c>
       <c r="R14" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.395742575327555</v>
+        <v>2.451053857803345</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0355563746080344</v>
+        <v>0.05838046813263557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02543171246846517</v>
+        <v>0.03176554044087728</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0005502540457306704</v>
+        <v>0.001098598341526145</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9111907695043838</v>
+        <v>0.9063928719052042</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1618572546392372</v>
+        <v>0.05824975865233113</v>
       </c>
       <c r="G15" t="n">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J15" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.9111907695043838), 'learning_rate': np.float64(0.16185725463923717), 'max_bins': 221, 'max_depth': 4, 'max_iter': 268, 'max_leaf_nodes': 44, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.9063928719052042), 'learning_rate': np.float64(0.05824975865233113), 'max_bins': 179, 'max_depth': 5, 'max_iter': 276, 'max_leaf_nodes': 34, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0.535</v>
+        <v>0.555</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5775</v>
+        <v>0.5725</v>
       </c>
       <c r="O15" t="n">
-        <v>0.58</v>
+        <v>0.5625</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02064918615560642</v>
+        <v>0.007168604389202173</v>
       </c>
       <c r="R15" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.333432277043661</v>
+        <v>2.63199241956075</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09223220807103061</v>
+        <v>0.3406261717939494</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0577536424001058</v>
+        <v>0.05493505795796712</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004328461667840565</v>
+        <v>0.009834356361729971</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5308206146307554</v>
+        <v>0.3690086399540334</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2481984817737872</v>
+        <v>0.2145679660494574</v>
       </c>
       <c r="G16" t="n">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="J16" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5308206146307554), 'learning_rate': np.float64(0.2481984817737872), 'max_bins': 208, 'max_depth': 5, 'max_iter': 322, 'max_leaf_nodes': 92, 'min_samples_leaf': 13}</t>
+          <t>{'l2_regularization': np.float64(0.36900863995403343), 'learning_rate': np.float64(0.21456796604945744), 'max_bins': 135, 'max_depth': 9, 'max_iter': 372, 'max_leaf_nodes': 93, 'min_samples_leaf': 19}</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0.52</v>
+        <v>0.535</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5675</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5775</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5508333333333333</v>
+        <v>0.5575000000000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02182633475618131</v>
+        <v>0.01744037461371362</v>
       </c>
       <c r="R16" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.594171524047852</v>
+        <v>16.04560581843058</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1265808391996933</v>
+        <v>0.7149046182607638</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04300379753112793</v>
+        <v>0.09815367062886556</v>
       </c>
       <c r="D17" t="n">
-        <v>0.006860174763490234</v>
+        <v>0.01028591567350776</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0219658753005133</v>
+        <v>0.3359260908834785</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2956243158337484</v>
+        <v>0.07744650094776337</v>
       </c>
       <c r="G17" t="n">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="J17" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.021965875300513305), 'learning_rate': np.float64(0.2956243158337484), 'max_bins': 124, 'max_depth': 5, 'max_iter': 369, 'max_leaf_nodes': 49, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.33592609088347847), 'learning_rate': np.float64(0.07744650094776337), 'max_bins': 177, 'max_depth': 11, 'max_iter': 446, 'max_leaf_nodes': 90, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>0.5275</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="N17" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O17" t="n">
-        <v>0.5675</v>
-      </c>
       <c r="P17" t="n">
-        <v>0.5516666666666666</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01736055554666641</v>
+        <v>0.004082482904638588</v>
       </c>
       <c r="R17" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.084315458933512</v>
+        <v>8.481464068094889</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05579065242629473</v>
+        <v>0.111684433004489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02072580655415853</v>
+        <v>0.08886965115865071</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001715557607211076</v>
+        <v>0.02071482883004508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8014517438257686</v>
+        <v>0.5717442533291074</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1492607729835416</v>
+        <v>0.04608806777670106</v>
       </c>
       <c r="G18" t="n">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I18" t="n">
-        <v>134</v>
+        <v>431</v>
       </c>
       <c r="J18" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="K18" t="n">
         <v>9</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8014517438257686), 'learning_rate': np.float64(0.1492607729835416), 'max_bins': 233, 'max_depth': 8, 'max_iter': 134, 'max_leaf_nodes': 68, 'min_samples_leaf': 9}</t>
+          <t>{'l2_regularization': np.float64(0.5717442533291074), 'learning_rate': np.float64(0.04608806777670106), 'max_bins': 220, 'max_depth': 12, 'max_iter': 431, 'max_leaf_nodes': 50, 'min_samples_leaf': 9}</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0.545</v>
+        <v>0.5575</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5775</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5675</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01389444333377753</v>
+        <v>0.009354143466934842</v>
       </c>
       <c r="R18" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.175609270731608</v>
+        <v>13.19453684488932</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09465870860365287</v>
+        <v>0.662970928466017</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02797253926595052</v>
+        <v>0.07136178016662598</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001632834065611644</v>
+        <v>0.01173912795554004</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8700149585427819</v>
+        <v>0.6797589407938465</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07110694511812096</v>
+        <v>0.2081355048881092</v>
       </c>
       <c r="G19" t="n">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I19" t="n">
-        <v>156</v>
+        <v>311</v>
       </c>
       <c r="J19" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8700149585427819), 'learning_rate': np.float64(0.07110694511812096), 'max_bins': 212, 'max_depth': 6, 'max_iter': 156, 'max_leaf_nodes': 83, 'min_samples_leaf': 6}</t>
+          <t>{'l2_regularization': np.float64(0.6797589407938465), 'learning_rate': np.float64(0.2081355048881092), 'max_bins': 235, 'max_depth': 12, 'max_iter': 311, 'max_leaf_nodes': 99, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>0.55</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5875</v>
+        <v>0.5625</v>
       </c>
       <c r="O19" t="n">
-        <v>0.57</v>
+        <v>0.5625</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5691666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01532064692570852</v>
+        <v>0.005892556509887875</v>
       </c>
       <c r="R19" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8623638947804769</v>
+        <v>5.755216360092163</v>
       </c>
       <c r="B20" t="n">
-        <v>0.048627215360683</v>
+        <v>0.6482490762065009</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0283507506052653</v>
+        <v>0.05702535311381022</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001584896458574238</v>
+        <v>0.01021425927526568</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8949587517153957</v>
+        <v>0.002628522227035246</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2209247294976362</v>
+        <v>0.04341518501573245</v>
       </c>
       <c r="G20" t="n">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="J20" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8949587517153957), 'learning_rate': np.float64(0.22092472949763622), 'max_bins': 115, 'max_depth': 3, 'max_iter': 340, 'max_leaf_nodes': 35, 'min_samples_leaf': 4}</t>
+          <t>{'l2_regularization': np.float64(0.002628522227035246), 'learning_rate': np.float64(0.04341518501573245), 'max_bins': 241, 'max_depth': 8, 'max_iter': 342, 'max_leaf_nodes': 40, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>0.515</v>
+        <v>0.55</v>
       </c>
       <c r="N20" t="n">
+        <v>0.5725</v>
+      </c>
+      <c r="O20" t="n">
         <v>0.5675</v>
       </c>
-      <c r="O20" t="n">
-        <v>0.5475</v>
-      </c>
       <c r="P20" t="n">
-        <v>0.5433333333333333</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02163459164291194</v>
+        <v>0.009646530752325171</v>
       </c>
       <c r="R20" t="n">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.190463701883952</v>
+        <v>1.061780611673991</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05608003173249088</v>
+        <v>0.0606213347189971</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01752956708272298</v>
+        <v>0.02679832776387532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002269744917569485</v>
+        <v>0.00212187199340953</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1774838714870237</v>
+        <v>0.928312712747133</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2475924216361657</v>
+        <v>0.01549510491679625</v>
       </c>
       <c r="G21" t="n">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>105</v>
+        <v>216</v>
       </c>
       <c r="J21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.17748387148702371), 'learning_rate': np.float64(0.2475924216361657), 'max_bins': 171, 'max_depth': 7, 'max_iter': 105, 'max_leaf_nodes': 27, 'min_samples_leaf': 7}</t>
+          <t>{'l2_regularization': np.float64(0.928312712747133), 'learning_rate': np.float64(0.015495104916796246), 'max_bins': 100, 'max_depth': 5, 'max_iter': 216, 'max_leaf_nodes': 24, 'min_samples_leaf': 11}</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>0.535</v>
+        <v>0.5475</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5875</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5625</v>
+        <v>0.575</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5525000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01241638702145945</v>
+        <v>0.01670828137980286</v>
       </c>
       <c r="R21" t="n">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.926326592763265</v>
+        <v>0.9886737664540609</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1512804659023031</v>
+        <v>0.0204321801269085</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06429235140482585</v>
+        <v>0.01677473386128743</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01176621372752472</v>
+        <v>0.002104383048967862</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6018888469799428</v>
+        <v>0.09474447360601146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2870981453608623</v>
+        <v>0.1753188433443755</v>
       </c>
       <c r="G22" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="J22" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K22" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6018888469799428), 'learning_rate': np.float64(0.28709814536086226), 'max_bins': 184, 'max_depth': 7, 'max_iter': 391, 'max_leaf_nodes': 73, 'min_samples_leaf': 18}</t>
+          <t>{'l2_regularization': np.float64(0.09474447360601146), 'learning_rate': np.float64(0.17531884334437547), 'max_bins': 178, 'max_depth': 6, 'max_iter': 106, 'max_leaf_nodes': 25, 'min_samples_leaf': 8}</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>0.54</v>
+        <v>0.5525</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5625</v>
+        <v>0.5675</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5825</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P22" t="n">
         <v>0.5616666666666666</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01736055554666638</v>
+        <v>0.006561673228343172</v>
       </c>
       <c r="R22" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.214447657267252</v>
+        <v>0.7631090482076009</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1350113118087098</v>
+        <v>0.03343308007033084</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03784775733947754</v>
+        <v>0.01126440366109212</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007503075764199753</v>
+        <v>0.001429885639055999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9852588881327647</v>
+        <v>0.6754235384492222</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07378581096542475</v>
+        <v>0.05748700247815659</v>
       </c>
       <c r="G23" t="n">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>307</v>
+        <v>60</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="K23" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.9852588881327647), 'learning_rate': np.float64(0.07378581096542475), 'max_bins': 243, 'max_depth': 10, 'max_iter': 307, 'max_leaf_nodes': 13, 'min_samples_leaf': 16}</t>
+          <t>{'l2_regularization': np.float64(0.6754235384492222), 'learning_rate': np.float64(0.05748700247815659), 'max_bins': 165, 'max_depth': 7, 'max_iter': 60, 'max_leaf_nodes': 81, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>0.5175</v>
+        <v>0.555</v>
       </c>
       <c r="N23" t="n">
         <v>0.5575</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5575</v>
+        <v>0.5725</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5441666666666666</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01885618083164128</v>
+        <v>0.007728015412913077</v>
       </c>
       <c r="R23" t="n">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9808058738708496</v>
+        <v>0.1563630898793539</v>
       </c>
       <c r="B24" t="n">
-        <v>0.03306514870987234</v>
+        <v>0.003227650982682761</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01663303375244141</v>
+        <v>0.006782849629720052</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002897240520616875</v>
+        <v>9.55526883773113e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06860417055473733</v>
+        <v>0.8596399161690292</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2717942107760664</v>
+        <v>0.0463424223751096</v>
       </c>
       <c r="G24" t="n">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H24" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="J24" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="K24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.06860417055473733), 'learning_rate': np.float64(0.27179421077606636), 'max_bins': 177, 'max_depth': 14, 'max_iter': 99, 'max_leaf_nodes': 72, 'min_samples_leaf': 14}</t>
+          <t>{'l2_regularization': np.float64(0.8596399161690292), 'learning_rate': np.float64(0.0463424223751096), 'max_bins': 140, 'max_depth': 3, 'max_iter': 64, 'max_leaf_nodes': 30, 'min_samples_leaf': 9}</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>0.5475</v>
+        <v>0.545</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5775</v>
+        <v>0.5725</v>
       </c>
       <c r="O24" t="n">
-        <v>0.58</v>
+        <v>0.5825</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.5666666666666668</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01476670428889112</v>
+        <v>0.01585524799203369</v>
       </c>
       <c r="R24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4180295467376709</v>
+        <v>3.918488661448161</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01294265900789727</v>
+        <v>0.4471693119666647</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01168537139892578</v>
+        <v>0.07238173484802246</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00191641210807385</v>
+        <v>0.01194423355961553</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8076275219417094</v>
+        <v>0.5966005821525846</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2827307366220956</v>
+        <v>0.104087811578656</v>
       </c>
       <c r="G25" t="n">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>98</v>
+        <v>420</v>
       </c>
       <c r="J25" t="n">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8076275219417094), 'learning_rate': np.float64(0.2827307366220956), 'max_bins': 146, 'max_depth': 4, 'max_iter': 98, 'max_leaf_nodes': 63, 'min_samples_leaf': 8}</t>
+          <t>{'l2_regularization': np.float64(0.5966005821525846), 'learning_rate': np.float64(0.10408781157865604), 'max_bins': 136, 'max_depth': 7, 'max_iter': 420, 'max_leaf_nodes': 34, 'min_samples_leaf': 11}</t>
         </is>
       </c>
       <c r="M25" t="n">
         <v>0.535</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5775</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>0.58</v>
+        <v>0.5825</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5608333333333334</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.02064918615560642</v>
+        <v>0.01961433715989969</v>
       </c>
       <c r="R25" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.630102713902792</v>
+        <v>4.197925170262654</v>
       </c>
       <c r="B26" t="n">
-        <v>0.08158933652893463</v>
+        <v>0.4021502839430561</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06204581260681152</v>
+        <v>0.08032011985778809</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0006542465019003056</v>
+        <v>0.01334664794790905</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6974905681946865</v>
+        <v>0.3858918742087857</v>
       </c>
       <c r="F26" t="n">
-        <v>0.145627411019941</v>
+        <v>0.06498615487691643</v>
       </c>
       <c r="G26" t="n">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I26" t="n">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="J26" t="n">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6974905681946865), 'learning_rate': np.float64(0.145627411019941), 'max_bins': 147, 'max_depth': 9, 'max_iter': 394, 'max_leaf_nodes': 99, 'min_samples_leaf': 2}</t>
+          <t>{'l2_regularization': np.float64(0.3858918742087857), 'learning_rate': np.float64(0.06498615487691643), 'max_bins': 112, 'max_depth': 13, 'max_iter': 464, 'max_leaf_nodes': 31, 'min_samples_leaf': 12}</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>0.57</v>
+        <v>0.5575</v>
       </c>
       <c r="N26" t="n">
-        <v>0.57</v>
+        <v>0.5825</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5625</v>
+        <v>0.5925</v>
       </c>
       <c r="P26" t="n">
-        <v>0.5675</v>
+        <v>0.5775</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.003535533905932715</v>
+        <v>0.01471960144387976</v>
       </c>
       <c r="R26" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6.662112633387248</v>
+        <v>1.9352867603302</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2230185349710267</v>
+        <v>0.156009935427102</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03995974858601888</v>
+        <v>0.04094807306925455</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0004462767141855881</v>
+        <v>0.01164681437432117</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03488005184260756</v>
+        <v>0.2445644113151263</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03443377881662462</v>
+        <v>0.1120142219641856</v>
       </c>
       <c r="G27" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H27" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="J27" t="n">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.03488005184260756), 'learning_rate': np.float64(0.03443377881662462), 'max_bins': 184, 'max_depth': 13, 'max_iter': 171, 'max_leaf_nodes': 73, 'min_samples_leaf': 1}</t>
+          <t>{'l2_regularization': np.float64(0.2445644113151263), 'learning_rate': np.float64(0.11201422196418558), 'max_bins': 183, 'max_depth': 4, 'max_iter': 322, 'max_leaf_nodes': 94, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="M27" t="n">
+        <v>0.5375</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5925</v>
+      </c>
+      <c r="O27" t="n">
         <v>0.555</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.5675</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.575</v>
-      </c>
       <c r="P27" t="n">
-        <v>0.5658333333333333</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.008249579113843017</v>
+        <v>0.02294316649656035</v>
       </c>
       <c r="R27" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.621037244796753</v>
+        <v>4.458077033360799</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04804415239582868</v>
+        <v>0.4166122124034115</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04824535051981608</v>
+        <v>0.06627599398295085</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0005064787453883636</v>
+        <v>0.005051927196117136</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07781724995342298</v>
+        <v>0.8166372186818543</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07651844451159284</v>
+        <v>0.1755453166966686</v>
       </c>
       <c r="G28" t="n">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="J28" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.07781724995342298), 'learning_rate': np.float64(0.07651844451159284), 'max_bins': 102, 'max_depth': 12, 'max_iter': 360, 'max_leaf_nodes': 86, 'min_samples_leaf': 14}</t>
+          <t>{'l2_regularization': np.float64(0.8166372186818543), 'learning_rate': np.float64(0.17554531669666862), 'max_bins': 168, 'max_depth': 8, 'max_iter': 368, 'max_leaf_nodes': 80, 'min_samples_leaf': 10}</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>0.55</v>
+        <v>0.535</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5675</v>
+        <v>0.5725</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5875</v>
+        <v>0.57</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.5591666666666666</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01532064692570852</v>
+        <v>0.01711886548681176</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.129887898763021</v>
+        <v>1.649202267328898</v>
       </c>
       <c r="B29" t="n">
-        <v>0.09807604458127475</v>
+        <v>0.03178326561521257</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03032859166463216</v>
+        <v>0.02540842692057292</v>
       </c>
       <c r="D29" t="n">
-        <v>0.005969979239730737</v>
+        <v>0.003103727710826252</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5769883319462025</v>
+        <v>0.801542523739134</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1890503742912</v>
+        <v>0.2914495057637199</v>
       </c>
       <c r="G29" t="n">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I29" t="n">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="J29" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5769883319462025), 'learning_rate': np.float64(0.18905037429119997), 'max_bins': 234, 'max_depth': 3, 'max_iter': 338, 'max_leaf_nodes': 18, 'min_samples_leaf': 3}</t>
+          <t>{'l2_regularization': np.float64(0.801542523739134), 'learning_rate': np.float64(0.2914495057637199), 'max_bins': 247, 'max_depth': 12, 'max_iter': 156, 'max_leaf_nodes': 61, 'min_samples_leaf': 17}</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0.515</v>
+        <v>0.5175</v>
       </c>
       <c r="N29" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5525</v>
       </c>
       <c r="O29" t="n">
-        <v>0.585</v>
+        <v>0.5675</v>
       </c>
       <c r="P29" t="n">
-        <v>0.555</v>
+        <v>0.5458333333333333</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.02943920288775946</v>
+        <v>0.02094967514996091</v>
       </c>
       <c r="R29" t="n">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.415135780970256</v>
+        <v>1.35895037651062</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1188249845925103</v>
+        <v>0.1243682675982525</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02274656295776367</v>
+        <v>0.02581667900085449</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003377087238659246</v>
+        <v>0.004293437182733135</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1207475276030715</v>
+        <v>0.4164097897586939</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1594226815074328</v>
+        <v>0.2212935711133736</v>
       </c>
       <c r="G30" t="n">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="J30" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.1207475276030715), 'learning_rate': np.float64(0.1594226815074328), 'max_bins': 135, 'max_depth': 9, 'max_iter': 123, 'max_leaf_nodes': 29, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.4164097897586939), 'learning_rate': np.float64(0.22129357111337364), 'max_bins': 179, 'max_depth': 6, 'max_iter': 148, 'max_leaf_nodes': 47, 'min_samples_leaf': 12}</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>0.545</v>
+        <v>0.535</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5575</v>
+        <v>0.575</v>
       </c>
       <c r="O30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="P30" t="n">
-        <v>0.5541666666666667</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.006561673228343172</v>
+        <v>0.01779513042005215</v>
       </c>
       <c r="R30" t="n">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8074721495310465</v>
+        <v>3.514926195144653</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02345060797664034</v>
+        <v>0.1917002642557226</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01529145240783691</v>
+        <v>0.06693967183430989</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0009113683584196249</v>
+        <v>0.008906192444495335</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1923325101890495</v>
+        <v>0.5984885314486089</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2728440251084104</v>
+        <v>0.1157816721104799</v>
       </c>
       <c r="G31" t="n">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
-        <v>113</v>
+        <v>432</v>
       </c>
       <c r="J31" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="K31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.1923325101890495), 'learning_rate': np.float64(0.27284402510841044), 'max_bins': 191, 'max_depth': 7, 'max_iter': 113, 'max_leaf_nodes': 27, 'min_samples_leaf': 19}</t>
+          <t>{'l2_regularization': np.float64(0.5984885314486089), 'learning_rate': np.float64(0.1157816721104799), 'max_bins': 152, 'max_depth': 12, 'max_iter': 432, 'max_leaf_nodes': 39, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0.5375</v>
+        <v>0.5525</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5525</v>
+        <v>0.5625</v>
       </c>
       <c r="O31" t="n">
         <v>0.575</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5549999999999999</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01541103500742243</v>
+        <v>0.009204467514322702</v>
       </c>
       <c r="R31" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.066198428471883</v>
+        <v>3.185411294301351</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05465600781551371</v>
+        <v>0.2647468999865901</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0134735107421875</v>
+        <v>0.05298924446105957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001970772368642095</v>
+        <v>0.008828629517229252</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7157679930637972</v>
+        <v>0.5525371525388082</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2103327634003732</v>
+        <v>0.0735326878315308</v>
       </c>
       <c r="G32" t="n">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>65</v>
+        <v>314</v>
       </c>
       <c r="J32" t="n">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.7157679930637972), 'learning_rate': np.float64(0.21033276340037316), 'max_bins': 205, 'max_depth': 12, 'max_iter': 65, 'max_leaf_nodes': 61, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.5525371525388082), 'learning_rate': np.float64(0.0735326878315308), 'max_bins': 197, 'max_depth': 11, 'max_iter': 314, 'max_leaf_nodes': 98, 'min_samples_leaf': 17}</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>0.53</v>
+        <v>0.5275</v>
       </c>
       <c r="N32" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="O32" t="n">
-        <v>0.5725</v>
+        <v>0.57</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5608333333333333</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.02201640802270482</v>
+        <v>0.02003469213361884</v>
       </c>
       <c r="R32" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.6666767597198486</v>
+        <v>5.237168471018474</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05893893078303918</v>
+        <v>0.1237932308195719</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01255098978678385</v>
+        <v>0.07189583778381348</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001733115302078515</v>
+        <v>0.005382980317340562</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09553876946881812</v>
+        <v>0.2993702979189061</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01631685942848466</v>
+        <v>0.03816664512624889</v>
       </c>
       <c r="G33" t="n">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="H33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
-        <v>60</v>
+        <v>452</v>
       </c>
       <c r="J33" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.09553876946881812), 'learning_rate': np.float64(0.016316859428484657), 'max_bins': 184, 'max_depth': 13, 'max_iter': 60, 'max_leaf_nodes': 97, 'min_samples_leaf': 17}</t>
+          <t>{'l2_regularization': np.float64(0.2993702979189061), 'learning_rate': np.float64(0.03816664512624889), 'max_bins': 137, 'max_depth': 12, 'max_iter': 452, 'max_leaf_nodes': 62, 'min_samples_leaf': 12}</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>0.5575</v>
+        <v>0.5225</v>
       </c>
       <c r="N33" t="n">
-        <v>0.545</v>
+        <v>0.5525</v>
       </c>
       <c r="O33" t="n">
-        <v>0.58</v>
+        <v>0.575</v>
       </c>
       <c r="P33" t="n">
-        <v>0.5608333333333334</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01448178933081894</v>
+        <v>0.02150581316760656</v>
       </c>
       <c r="R33" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.119522492090861</v>
+        <v>2.022194385528564</v>
       </c>
       <c r="B34" t="n">
-        <v>0.08345105613667646</v>
+        <v>0.08339967304731727</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05463075637817383</v>
+        <v>0.02702792485555013</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002737382687730361</v>
+        <v>0.001139844315827681</v>
       </c>
       <c r="E34" t="n">
-        <v>0.140109162378911</v>
+        <v>0.5458165444011364</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2391092943486266</v>
+        <v>0.2735558655199854</v>
       </c>
       <c r="G34" t="n">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="H34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I34" t="n">
-        <v>451</v>
+        <v>116</v>
       </c>
       <c r="J34" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.14010916237891102), 'learning_rate': np.float64(0.2391092943486266), 'max_bins': 182, 'max_depth': 9, 'max_iter': 451, 'max_leaf_nodes': 20, 'min_samples_leaf': 2}</t>
+          <t>{'l2_regularization': np.float64(0.5458165444011364), 'learning_rate': np.float64(0.2735558655199854), 'max_bins': 125, 'max_depth': 12, 'max_iter': 116, 'max_leaf_nodes': 77, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>0.5425</v>
+        <v>0.555</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5725</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5616666666666666</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01359125535858341</v>
+        <v>0.01545603082582614</v>
       </c>
       <c r="R34" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.493073066075643</v>
+        <v>5.423624992370605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09003084139195189</v>
+        <v>0.2106213604616332</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03444306055704752</v>
+        <v>0.03584003448486328</v>
       </c>
       <c r="D35" t="n">
-        <v>0.005425526806311435</v>
+        <v>0.0008033021680509196</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5563690027903416</v>
+        <v>0.7283670766581033</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09670552412410802</v>
+        <v>0.07699545327295225</v>
       </c>
       <c r="G35" t="n">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="J35" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="K35" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5563690027903416), 'learning_rate': np.float64(0.09670552412410802), 'max_bins': 111, 'max_depth': 8, 'max_iter': 235, 'max_leaf_nodes': 94, 'min_samples_leaf': 17}</t>
+          <t>{'l2_regularization': np.float64(0.7283670766581033), 'learning_rate': np.float64(0.07699545327295225), 'max_bins': 132, 'max_depth': 7, 'max_iter': 253, 'max_leaf_nodes': 58, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>0.52</v>
+        <v>0.5175</v>
       </c>
       <c r="N35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5825</v>
       </c>
       <c r="O35" t="n">
-        <v>0.5775</v>
+        <v>0.5725</v>
       </c>
       <c r="P35" t="n">
-        <v>0.5525000000000001</v>
+        <v>0.5575</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.02406588179698942</v>
+        <v>0.02857738033247044</v>
       </c>
       <c r="R35" t="n">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.183276494344076</v>
+        <v>4.800599336624146</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1351475895223753</v>
+        <v>0.307343221748316</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04695336023966471</v>
+        <v>0.07800801595052083</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002984695330938617</v>
+        <v>0.01701319354329773</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8540911201131648</v>
+        <v>0.1963354408970072</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1920679809324178</v>
+        <v>0.2988584076936104</v>
       </c>
       <c r="G36" t="n">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I36" t="n">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="J36" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="K36" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8540911201131648), 'learning_rate': np.float64(0.1920679809324178), 'max_bins': 170, 'max_depth': 9, 'max_iter': 334, 'max_leaf_nodes': 77, 'min_samples_leaf': 12}</t>
+          <t>{'l2_regularization': np.float64(0.19633544089700716), 'learning_rate': np.float64(0.2988584076936104), 'max_bins': 118, 'max_depth': 8, 'max_iter': 453, 'max_leaf_nodes': 46, 'min_samples_leaf': 2}</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>0.535</v>
+        <v>0.555</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5575</v>
+        <v>0.5675</v>
       </c>
       <c r="O36" t="n">
-        <v>0.57</v>
+        <v>0.5725</v>
       </c>
       <c r="P36" t="n">
-        <v>0.5541666666666667</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01448178933081894</v>
+        <v>0.007359800721939854</v>
       </c>
       <c r="R36" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.061713695526123</v>
+        <v>1.240903615951538</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1210703705204596</v>
+        <v>0.05551825112993029</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01723432540893555</v>
+        <v>0.0294802188873291</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002427354646682091</v>
+        <v>0.007982739975348341</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6886333818517074</v>
+        <v>0.6991848193463696</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02079530628912121</v>
+        <v>0.2840875461466091</v>
       </c>
       <c r="G37" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="J37" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K37" t="n">
         <v>5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6886333818517074), 'learning_rate': np.float64(0.02079530628912121), 'max_bins': 132, 'max_depth': 6, 'max_iter': 112, 'max_leaf_nodes': 47, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.6991848193463696), 'learning_rate': np.float64(0.2840875461466091), 'max_bins': 122, 'max_depth': 5, 'max_iter': 158, 'max_leaf_nodes': 74, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>0.545</v>
+        <v>0.5325</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5725</v>
       </c>
       <c r="O37" t="n">
         <v>0.57</v>
@@ -2607,3722 +2607,3722 @@
         <v>0.5583333333333332</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01027402333828159</v>
+        <v>0.01829541533341679</v>
       </c>
       <c r="R37" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.391270081202189</v>
+        <v>8.312160730361938</v>
       </c>
       <c r="B38" t="n">
-        <v>0.2523016033089668</v>
+        <v>0.2070473605651863</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05345590909322103</v>
+        <v>0.08589498202006023</v>
       </c>
       <c r="D38" t="n">
-        <v>0.008985396617064878</v>
+        <v>0.006417845281724286</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6343044337335598</v>
+        <v>0.0739333792321436</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2327067118662999</v>
+        <v>0.04520434418764033</v>
       </c>
       <c r="G38" t="n">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="H38" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" t="n">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="J38" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6343044337335598), 'learning_rate': np.float64(0.2327067118662999), 'max_bins': 212, 'max_depth': 13, 'max_iter': 385, 'max_leaf_nodes': 21, 'min_samples_leaf': 15}</t>
+          <t>{'l2_regularization': np.float64(0.0739333792321436), 'learning_rate': np.float64(0.045204344187640334), 'max_bins': 137, 'max_depth': 14, 'max_iter': 421, 'max_leaf_nodes': 61, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>0.5325</v>
+        <v>0.5525</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="O38" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5675</v>
       </c>
       <c r="P38" t="n">
-        <v>0.5525</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01428869016623521</v>
+        <v>0.007728015412913077</v>
       </c>
       <c r="R38" t="n">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7368379433949789</v>
+        <v>6.020073811213176</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07003212526072593</v>
+        <v>0.3154249882393289</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02157735824584961</v>
+        <v>0.1003210544586182</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003487565221589135</v>
+        <v>0.01757809044186216</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1652583529519416</v>
+        <v>0.7908321237008976</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2923973630120729</v>
+        <v>0.224172052163121</v>
       </c>
       <c r="G39" t="n">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="I39" t="n">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="J39" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.16525835295194158), 'learning_rate': np.float64(0.2923973630120729), 'max_bins': 111, 'max_depth': 4, 'max_iter': 170, 'max_leaf_nodes': 83, 'min_samples_leaf': 4}</t>
+          <t>{'l2_regularization': np.float64(0.7908321237008976), 'learning_rate': np.float64(0.22417205216312103), 'max_bins': 100, 'max_depth': 14, 'max_iter': 457, 'max_leaf_nodes': 55, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>0.535</v>
+        <v>0.5775</v>
       </c>
       <c r="N39" t="n">
-        <v>0.5725</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O39" t="n">
-        <v>0.57</v>
+        <v>0.5625</v>
       </c>
       <c r="P39" t="n">
-        <v>0.5591666666666666</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01711886548681176</v>
+        <v>0.006561673228343191</v>
       </c>
       <c r="R39" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.310341993967692</v>
+        <v>2.327056487401327</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1833873060678161</v>
+        <v>0.1863925716243128</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03635096549987793</v>
+        <v>0.03558150927225748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.006277239916599978</v>
+        <v>0.0006262352320404655</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6863315558201221</v>
+        <v>0.6313136533042456</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1870881334473327</v>
+        <v>0.04053509891657264</v>
       </c>
       <c r="G40" t="n">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="H40" t="n">
         <v>11</v>
       </c>
       <c r="I40" t="n">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="J40" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6863315558201221), 'learning_rate': np.float64(0.1870881334473327), 'max_bins': 124, 'max_depth': 11, 'max_iter': 224, 'max_leaf_nodes': 34, 'min_samples_leaf': 8}</t>
+          <t>{'l2_regularization': np.float64(0.6313136533042456), 'learning_rate': np.float64(0.040535098916572636), 'max_bins': 141, 'max_depth': 11, 'max_iter': 262, 'max_leaf_nodes': 47, 'min_samples_leaf': 17}</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>0.535</v>
+        <v>0.525</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5775</v>
+        <v>0.57</v>
       </c>
       <c r="O40" t="n">
-        <v>0.5625</v>
+        <v>0.57</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.555</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01759892673495239</v>
+        <v>0.02121320343559639</v>
       </c>
       <c r="R40" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.073188145955403</v>
+        <v>3.874583721160889</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3665265460634416</v>
+        <v>0.4058028738989127</v>
       </c>
       <c r="C41" t="n">
-        <v>0.06102808316548666</v>
+        <v>0.06343166033426921</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0001573888106030215</v>
+        <v>0.005218375982132881</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1287049200136963</v>
+        <v>0.9586414418956842</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1972165899178286</v>
+        <v>0.06928290915500115</v>
       </c>
       <c r="G41" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H41" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="J41" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.12870492001369627), 'learning_rate': np.float64(0.1972165899178286), 'max_bins': 123, 'max_depth': 13, 'max_iter': 453, 'max_leaf_nodes': 84, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.9586414418956842), 'learning_rate': np.float64(0.06928290915500115), 'max_bins': 129, 'max_depth': 10, 'max_iter': 441, 'max_leaf_nodes': 97, 'min_samples_leaf': 17}</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>0.545</v>
+        <v>0.5375</v>
       </c>
       <c r="N41" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5725</v>
+        <v>0.59</v>
       </c>
       <c r="P41" t="n">
-        <v>0.5608333333333333</v>
+        <v>0.5658333333333333</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.01160699023098674</v>
+        <v>0.02163459164291194</v>
       </c>
       <c r="R41" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.561978340148926</v>
+        <v>1.599172751108805</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6487205693298588</v>
+        <v>0.08991358788267109</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07982929547627766</v>
+        <v>0.03101992607116699</v>
       </c>
       <c r="D42" t="n">
-        <v>0.008095097752463858</v>
+        <v>0.004366062621557212</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2818753600825707</v>
+        <v>0.1468647437972092</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1413324695534067</v>
+        <v>0.114534106187358</v>
       </c>
       <c r="G42" t="n">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="H42" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>429</v>
+        <v>282</v>
       </c>
       <c r="J42" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.28187536008257075), 'learning_rate': np.float64(0.14133246955340673), 'max_bins': 177, 'max_depth': 14, 'max_iter': 429, 'max_leaf_nodes': 57, 'min_samples_leaf': 4}</t>
+          <t>{'l2_regularization': np.float64(0.14686474379720915), 'learning_rate': np.float64(0.11453410618735797), 'max_bins': 195, 'max_depth': 4, 'max_iter': 282, 'max_leaf_nodes': 28, 'min_samples_leaf': 4}</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>0.555</v>
+        <v>0.53</v>
       </c>
       <c r="N42" t="n">
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="O42" t="n">
-        <v>0.5625</v>
+        <v>0.55</v>
       </c>
       <c r="P42" t="n">
-        <v>0.5675</v>
+        <v>0.5516666666666666</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01274754878398193</v>
+        <v>0.0184089350286454</v>
       </c>
       <c r="R42" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.590866088867188</v>
+        <v>1.438602526982625</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08220951736512724</v>
+        <v>0.1298796094906469</v>
       </c>
       <c r="C43" t="n">
-        <v>0.06041804949442545</v>
+        <v>0.03323729832967123</v>
       </c>
       <c r="D43" t="n">
-        <v>0.009001397997282461</v>
+        <v>0.005556823073958524</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2482744843200613</v>
+        <v>0.8641362758159323</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1521127989429858</v>
+        <v>0.2931954583759531</v>
       </c>
       <c r="G43" t="n">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I43" t="n">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="J43" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K43" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.24827448432006127), 'learning_rate': np.float64(0.1521127989429858), 'max_bins': 223, 'max_depth': 9, 'max_iter': 388, 'max_leaf_nodes': 93, 'min_samples_leaf': 16}</t>
+          <t>{'l2_regularization': np.float64(0.8641362758159323), 'learning_rate': np.float64(0.2931954583759531), 'max_bins': 134, 'max_depth': 8, 'max_iter': 209, 'max_leaf_nodes': 83, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>0.5375</v>
+        <v>0.5425</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5525</v>
+        <v>0.5475</v>
       </c>
       <c r="O43" t="n">
-        <v>0.5725</v>
+        <v>0.5975</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5541666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01433720877840439</v>
+        <v>0.02483277404291892</v>
       </c>
       <c r="R43" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.126937945683797</v>
+        <v>1.407193024953206</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1463836008670069</v>
+        <v>0.1454733158724562</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03193251291910807</v>
+        <v>0.02811074256896973</v>
       </c>
       <c r="D44" t="n">
-        <v>0.005792320461544476</v>
+        <v>0.002443686296988867</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3298388960489097</v>
+        <v>0.06003410259467712</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2016553616167344</v>
+        <v>0.1080348186747142</v>
       </c>
       <c r="G44" t="n">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I44" t="n">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="J44" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.3298388960489097), 'learning_rate': np.float64(0.20165536161673436), 'max_bins': 229, 'max_depth': 9, 'max_iter': 228, 'max_leaf_nodes': 22, 'min_samples_leaf': 16}</t>
+          <t>{'l2_regularization': np.float64(0.06003410259467712), 'learning_rate': np.float64(0.10803481867471423), 'max_bins': 191, 'max_depth': 12, 'max_iter': 125, 'max_leaf_nodes': 45, 'min_samples_leaf': 17}</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>0.5475</v>
+        <v>0.55</v>
       </c>
       <c r="N44" t="n">
-        <v>0.5575</v>
+        <v>0.555</v>
       </c>
       <c r="O44" t="n">
-        <v>0.5675</v>
+        <v>0.5825</v>
       </c>
       <c r="P44" t="n">
-        <v>0.5575</v>
+        <v>0.5625</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.008164965809277268</v>
+        <v>0.01428869016623519</v>
       </c>
       <c r="R44" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.083779652913411</v>
+        <v>3.818182786305746</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1966570035041065</v>
+        <v>0.3755230320499965</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06102252006530762</v>
+        <v>0.05787372589111328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008864709484330453</v>
+        <v>0.006888316451738111</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7530186334572062</v>
+        <v>0.5507981288061597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01922254349295088</v>
+        <v>0.1314051776672945</v>
       </c>
       <c r="G45" t="n">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="H45" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I45" t="n">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="J45" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="K45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.7530186334572062), 'learning_rate': np.float64(0.019222543492950876), 'max_bins': 220, 'max_depth': 7, 'max_iter': 382, 'max_leaf_nodes': 28, 'min_samples_leaf': 12}</t>
+          <t>{'l2_regularization': np.float64(0.5507981288061597), 'learning_rate': np.float64(0.13140517766729448), 'max_bins': 233, 'max_depth': 12, 'max_iter': 422, 'max_leaf_nodes': 13, 'min_samples_leaf': 11}</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>0.5175</v>
+        <v>0.52</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5525</v>
+        <v>0.5675</v>
       </c>
       <c r="O45" t="n">
-        <v>0.5625</v>
+        <v>0.58</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5441666666666666</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01929306150465039</v>
+        <v>0.02584677069878468</v>
       </c>
       <c r="R45" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2.866786321004232</v>
+        <v>5.339480638504028</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2617373263573016</v>
+        <v>0.03058136371808626</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0497589111328125</v>
+        <v>0.0678412914276123</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00812111972113665</v>
+        <v>0.005493004041704192</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1647417987148457</v>
+        <v>0.2876088011470103</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1196785483844097</v>
+        <v>0.07900186065124343</v>
       </c>
       <c r="G46" t="n">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I46" t="n">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="J46" t="n">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="K46" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.16474179871484573), 'learning_rate': np.float64(0.11967854838440974), 'max_bins': 201, 'max_depth': 10, 'max_iter': 345, 'max_leaf_nodes': 36, 'min_samples_leaf': 19}</t>
+          <t>{'l2_regularization': np.float64(0.28760880114701026), 'learning_rate': np.float64(0.07900186065124343), 'max_bins': 192, 'max_depth': 8, 'max_iter': 462, 'max_leaf_nodes': 89, 'min_samples_leaf': 11}</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>0.525</v>
+        <v>0.5325</v>
       </c>
       <c r="N46" t="n">
-        <v>0.55</v>
+        <v>0.5725</v>
       </c>
       <c r="O46" t="n">
-        <v>0.55</v>
+        <v>0.5875</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5416666666666667</v>
+        <v>0.5641666666666666</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.0117851130197758</v>
+        <v>0.02321398046197355</v>
       </c>
       <c r="R46" t="n">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.268193006515503</v>
+        <v>1.473973989486694</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2203828307363581</v>
+        <v>0.1852212281606777</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07222612698872884</v>
+        <v>0.03262178103129069</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0113304257869313</v>
+        <v>0.007188966463548502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6982538790544923</v>
+        <v>0.1918152550759906</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2637517216643847</v>
+        <v>0.2574946710531996</v>
       </c>
       <c r="G47" t="n">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I47" t="n">
-        <v>495</v>
+        <v>260</v>
       </c>
       <c r="J47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6982538790544923), 'learning_rate': np.float64(0.2637517216643847), 'max_bins': 165, 'max_depth': 11, 'max_iter': 495, 'max_leaf_nodes': 25, 'min_samples_leaf': 12}</t>
+          <t>{'l2_regularization': np.float64(0.19181525507599062), 'learning_rate': np.float64(0.25749467105319956), 'max_bins': 139, 'max_depth': 14, 'max_iter': 260, 'max_leaf_nodes': 10, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="N47" t="n">
-        <v>0.5775</v>
+        <v>0.5625</v>
       </c>
       <c r="O47" t="n">
-        <v>0.585</v>
+        <v>0.555</v>
       </c>
       <c r="P47" t="n">
-        <v>0.5675</v>
+        <v>0.5425</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.0196850196850295</v>
+        <v>0.02318404623873926</v>
       </c>
       <c r="R47" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.177984952926636</v>
+        <v>3.567929029464722</v>
       </c>
       <c r="B48" t="n">
-        <v>0.05326742325385937</v>
+        <v>0.08309093512215961</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06571165720621745</v>
+        <v>0.07491668065388997</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004848664902220347</v>
+        <v>0.004446987182082775</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1528045164006747</v>
+        <v>0.2648284116334779</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1790913352073036</v>
+        <v>0.1036102584189279</v>
       </c>
       <c r="G48" t="n">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="H48" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J48" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="K48" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.15280451640067472), 'learning_rate': np.float64(0.17909133520730358), 'max_bins': 222, 'max_depth': 7, 'max_iter': 494, 'max_leaf_nodes': 51, 'min_samples_leaf': 11}</t>
+          <t>{'l2_regularization': np.float64(0.2648284116334779), 'learning_rate': np.float64(0.10361025841892786), 'max_bins': 142, 'max_depth': 12, 'max_iter': 495, 'max_leaf_nodes': 18, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>0.5325</v>
+        <v>0.5425</v>
       </c>
       <c r="N48" t="n">
-        <v>0.5775</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O48" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P48" t="n">
-        <v>0.5666666666666665</v>
+        <v>0.5541666666666667</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.02469255398338176</v>
+        <v>0.008249579113843088</v>
       </c>
       <c r="R48" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.159297784169515</v>
+        <v>2.275673945744833</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05196433145129416</v>
+        <v>0.1752437463180196</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05583588282267252</v>
+        <v>0.03476111094156901</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0004467748875170832</v>
+        <v>0.00501265821259587</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7771312154684168</v>
+        <v>0.8454003497055249</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2448206819473251</v>
+        <v>0.145522839933826</v>
       </c>
       <c r="G49" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H49" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I49" t="n">
-        <v>462</v>
+        <v>200</v>
       </c>
       <c r="J49" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="K49" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.7771312154684168), 'learning_rate': np.float64(0.24482068194732515), 'max_bins': 161, 'max_depth': 11, 'max_iter': 462, 'max_leaf_nodes': 22, 'min_samples_leaf': 16}</t>
+          <t>{'l2_regularization': np.float64(0.8454003497055249), 'learning_rate': np.float64(0.145522839933826), 'max_bins': 166, 'max_depth': 7, 'max_iter': 200, 'max_leaf_nodes': 88, 'min_samples_leaf': 10}</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>0.53</v>
+        <v>0.5325</v>
       </c>
       <c r="N49" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O49" t="n">
         <v>0.5625</v>
       </c>
-      <c r="O49" t="n">
-        <v>0.5575</v>
-      </c>
       <c r="P49" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.5516666666666666</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01428869016623519</v>
+        <v>0.01359125535858343</v>
       </c>
       <c r="R49" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.897962013880412</v>
+        <v>0.5983622868855795</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2329116387587187</v>
+        <v>0.02312422820679225</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03787422180175781</v>
+        <v>0.02241086959838867</v>
       </c>
       <c r="D50" t="n">
-        <v>0.007069906382430614</v>
+        <v>0.00311108872974398</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6050544719098934</v>
+        <v>0.2729610629747865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08199845202171013</v>
+        <v>0.1740850404211075</v>
       </c>
       <c r="G50" t="n">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="n">
+        <v>128</v>
+      </c>
+      <c r="J50" t="n">
+        <v>14</v>
+      </c>
+      <c r="K50" t="n">
         <v>12</v>
       </c>
-      <c r="I50" t="n">
-        <v>230</v>
-      </c>
-      <c r="J50" t="n">
-        <v>83</v>
-      </c>
-      <c r="K50" t="n">
-        <v>10</v>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6050544719098934), 'learning_rate': np.float64(0.08199845202171013), 'max_bins': 254, 'max_depth': 12, 'max_iter': 230, 'max_leaf_nodes': 83, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.2729610629747865), 'learning_rate': np.float64(0.1740850404211075), 'max_bins': 146, 'max_depth': 4, 'max_iter': 128, 'max_leaf_nodes': 14, 'min_samples_leaf': 12}</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>0.55</v>
+        <v>0.5225</v>
       </c>
       <c r="N50" t="n">
-        <v>0.5825</v>
+        <v>0.5725</v>
       </c>
       <c r="O50" t="n">
-        <v>0.58</v>
+        <v>0.5775</v>
       </c>
       <c r="P50" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.5575</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.0147667042888911</v>
+        <v>0.02483277404291892</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.917073408762614</v>
+        <v>10.23675894737244</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2043113766626669</v>
+        <v>0.3307271397428793</v>
       </c>
       <c r="C51" t="n">
-        <v>0.05336936314900716</v>
+        <v>0.06470608711242676</v>
       </c>
       <c r="D51" t="n">
-        <v>0.007796789221058173</v>
+        <v>0.01086022882845562</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4304956762915518</v>
+        <v>0.8799186053196874</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04920544781725299</v>
+        <v>0.2150582464585638</v>
       </c>
       <c r="G51" t="n">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>456</v>
+        <v>320</v>
       </c>
       <c r="J51" t="n">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="K51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.43049567629155183), 'learning_rate': np.float64(0.049205447817252994), 'max_bins': 134, 'max_depth': 4, 'max_iter': 456, 'max_leaf_nodes': 47, 'min_samples_leaf': 8}</t>
+          <t>{'l2_regularization': np.float64(0.8799186053196874), 'learning_rate': np.float64(0.21505824645856375), 'max_bins': 199, 'max_depth': 9, 'max_iter': 320, 'max_leaf_nodes': 93, 'min_samples_leaf': 2}</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="N51" t="n">
-        <v>0.5825</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O51" t="n">
-        <v>0.5425</v>
+        <v>0.5675</v>
       </c>
       <c r="P51" t="n">
-        <v>0.555</v>
+        <v>0.5608333333333334</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01947220240924654</v>
+        <v>0.007728015412913057</v>
       </c>
       <c r="R51" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.493348995844523</v>
+        <v>1.477384726206462</v>
       </c>
       <c r="B52" t="n">
-        <v>0.296730876601863</v>
+        <v>0.1722056961198066</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08660578727722168</v>
+        <v>0.03695058822631836</v>
       </c>
       <c r="D52" t="n">
-        <v>0.002049495225808551</v>
+        <v>0.007736989496716314</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9505607280235236</v>
+        <v>0.1441640192017503</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2113052468489991</v>
+        <v>0.2938534271526431</v>
       </c>
       <c r="G52" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>462</v>
+        <v>200</v>
       </c>
       <c r="J52" t="n">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="K52" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.9505607280235236), 'learning_rate': np.float64(0.2113052468489991), 'max_bins': 125, 'max_depth': 11, 'max_iter': 462, 'max_leaf_nodes': 62, 'min_samples_leaf': 11}</t>
+          <t>{'l2_regularization': np.float64(0.14416401920175026), 'learning_rate': np.float64(0.2938534271526431), 'max_bins': 117, 'max_depth': 10, 'max_iter': 200, 'max_leaf_nodes': 78, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>0.545</v>
       </c>
       <c r="N52" t="n">
-        <v>0.5575</v>
+        <v>0.545</v>
       </c>
       <c r="O52" t="n">
-        <v>0.5775</v>
+        <v>0.57</v>
       </c>
       <c r="P52" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01338531533684083</v>
+        <v>0.01178511301977575</v>
       </c>
       <c r="R52" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3.747710227966309</v>
+        <v>3.460537830988566</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1880259346590098</v>
+        <v>0.2516643288258498</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03149294853210449</v>
+        <v>0.05743956565856934</v>
       </c>
       <c r="D53" t="n">
-        <v>0.003840882674850189</v>
+        <v>0.003597308227778023</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8378106017845575</v>
+        <v>0.8019711403010066</v>
       </c>
       <c r="F53" t="n">
-        <v>0.07708353511050896</v>
+        <v>0.1649095079231408</v>
       </c>
       <c r="G53" t="n">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>213</v>
+        <v>327</v>
       </c>
       <c r="J53" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="K53" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8378106017845575), 'learning_rate': np.float64(0.07708353511050896), 'max_bins': 247, 'max_depth': 7, 'max_iter': 213, 'max_leaf_nodes': 43, 'min_samples_leaf': 7}</t>
+          <t>{'l2_regularization': np.float64(0.8019711403010066), 'learning_rate': np.float64(0.16490950792314077), 'max_bins': 184, 'max_depth': 10, 'max_iter': 327, 'max_leaf_nodes': 28, 'min_samples_leaf': 14}</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>0.555</v>
+        <v>0.5475</v>
       </c>
       <c r="N53" t="n">
-        <v>0.5875</v>
+        <v>0.5425</v>
       </c>
       <c r="O53" t="n">
         <v>0.57</v>
       </c>
       <c r="P53" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.5533333333333332</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01328114787542435</v>
+        <v>0.01196058341200609</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.762045701344808</v>
+        <v>0.9054749806722006</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03427765263012768</v>
+        <v>0.1055492433382647</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03122329711914062</v>
+        <v>0.0416270891825358</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0006448658297398426</v>
+        <v>0.01208857704241614</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7429917897363395</v>
+        <v>0.3415730546756974</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2565721903004017</v>
+        <v>0.2624096826384104</v>
       </c>
       <c r="G54" t="n">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="J54" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K54" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.7429917897363395), 'learning_rate': np.float64(0.2565721903004017), 'max_bins': 171, 'max_depth': 7, 'max_iter': 258, 'max_leaf_nodes': 32, 'min_samples_leaf': 18}</t>
+          <t>{'l2_regularization': np.float64(0.34157305467569743), 'learning_rate': np.float64(0.26240968263841036), 'max_bins': 123, 'max_depth': 3, 'max_iter': 331, 'max_leaf_nodes': 50, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>0.5375</v>
+        <v>0.52</v>
       </c>
       <c r="N54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="O54" t="n">
-        <v>0.5925</v>
+        <v>0.5525</v>
       </c>
       <c r="P54" t="n">
-        <v>0.5633333333333334</v>
+        <v>0.545</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.02257702864024013</v>
+        <v>0.01814295088089769</v>
       </c>
       <c r="R54" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.383410612742106</v>
+        <v>0.3981626828511556</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09237193077957237</v>
+        <v>0.04622141318644253</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03085994720458984</v>
+        <v>0.02180941899617513</v>
       </c>
       <c r="D55" t="n">
-        <v>0.004480068502652861</v>
+        <v>0.00286340437121456</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4066659586927742</v>
+        <v>0.9642498107471978</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1540660893363736</v>
+        <v>0.1921579706636061</v>
       </c>
       <c r="G55" t="n">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="H55" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="J55" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K55" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.4066659586927742), 'learning_rate': np.float64(0.15406608933637364), 'max_bins': 187, 'max_depth': 14, 'max_iter': 216, 'max_leaf_nodes': 15, 'min_samples_leaf': 19}</t>
+          <t>{'l2_regularization': np.float64(0.9642498107471978), 'learning_rate': np.float64(0.19215797066360613), 'max_bins': 108, 'max_depth': 3, 'max_iter': 154, 'max_leaf_nodes': 21, 'min_samples_leaf': 9}</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>0.5575</v>
+        <v>0.5275</v>
       </c>
       <c r="N55" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="O55" t="n">
-        <v>0.5675</v>
+        <v>0.5425</v>
       </c>
       <c r="P55" t="n">
-        <v>0.5683333333333334</v>
+        <v>0.54</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.009204467514322702</v>
+        <v>0.00935414346693488</v>
       </c>
       <c r="R55" t="n">
-        <v>10</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3.837089061737061</v>
+        <v>2.598624626795451</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2497215542871763</v>
+        <v>0.1461695915758863</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04995870590209961</v>
+        <v>0.05064717928568522</v>
       </c>
       <c r="D56" t="n">
-        <v>0.007964440394104128</v>
+        <v>0.007701289938512423</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7162063736831429</v>
+        <v>0.2663495089920229</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3065084441880103</v>
+        <v>0.2055952779961536</v>
       </c>
       <c r="G56" t="n">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="H56" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>306</v>
+        <v>437</v>
       </c>
       <c r="J56" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K56" t="n">
         <v>10</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.7162063736831429), 'learning_rate': np.float64(0.30650844418801027), 'max_bins': 192, 'max_depth': 14, 'max_iter': 306, 'max_leaf_nodes': 68, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.2663495089920229), 'learning_rate': np.float64(0.20559527799615357), 'max_bins': 210, 'max_depth': 4, 'max_iter': 437, 'max_leaf_nodes': 76, 'min_samples_leaf': 10}</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0.5225</v>
+        <v>0.53</v>
       </c>
       <c r="N56" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="O56" t="n">
-        <v>0.5525</v>
+        <v>0.5775</v>
       </c>
       <c r="P56" t="n">
-        <v>0.5483333333333332</v>
+        <v>0.5625</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.0196143371598997</v>
+        <v>0.02300362290307041</v>
       </c>
       <c r="R56" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.278713464736938</v>
+        <v>2.228706041971842</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1103543059377032</v>
+        <v>0.0205907373700509</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04390223821004232</v>
+        <v>0.04381283124287923</v>
       </c>
       <c r="D57" t="n">
-        <v>0.004972253793502268</v>
+        <v>0.001684039130732383</v>
       </c>
       <c r="E57" t="n">
-        <v>0.642137532516571</v>
+        <v>0.3306540834307572</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1674474863921037</v>
+        <v>0.2036156854796625</v>
       </c>
       <c r="G57" t="n">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="J57" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="K57" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.642137532516571), 'learning_rate': np.float64(0.16744748639210372), 'max_bins': 170, 'max_depth': 9, 'max_iter': 287, 'max_leaf_nodes': 50, 'min_samples_leaf': 18}</t>
+          <t>{'l2_regularization': np.float64(0.3306540834307572), 'learning_rate': np.float64(0.20361568547966247), 'max_bins': 124, 'max_depth': 7, 'max_iter': 226, 'max_leaf_nodes': 68, 'min_samples_leaf': 11}</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0.535</v>
+        <v>0.5525</v>
       </c>
       <c r="N57" t="n">
-        <v>0.5675</v>
+        <v>0.57</v>
       </c>
       <c r="O57" t="n">
-        <v>0.5825</v>
+        <v>0.5725</v>
       </c>
       <c r="P57" t="n">
-        <v>0.5616666666666666</v>
+        <v>0.5650000000000001</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01982562875561719</v>
+        <v>0.00889756521002609</v>
       </c>
       <c r="R57" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.185552755991618</v>
+        <v>4.458162943522136</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1108622760668383</v>
+        <v>0.3142813445027419</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0326530933380127</v>
+        <v>0.03468958536783854</v>
       </c>
       <c r="D58" t="n">
-        <v>0.006386422338562074</v>
+        <v>0.002238402276368142</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2223268343847963</v>
+        <v>0.3774027516231091</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2380635787657929</v>
+        <v>0.06487602534048573</v>
       </c>
       <c r="G58" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I58" t="n">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="J58" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.22232683438479628), 'learning_rate': np.float64(0.2380635787657929), 'max_bins': 243, 'max_depth': 8, 'max_iter': 284, 'max_leaf_nodes': 11, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.3774027516231091), 'learning_rate': np.float64(0.06487602534048573), 'max_bins': 248, 'max_depth': 12, 'max_iter': 244, 'max_leaf_nodes': 21, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>0.5375</v>
+        <v>0.5475</v>
       </c>
       <c r="N58" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.585</v>
       </c>
       <c r="O58" t="n">
-        <v>0.5675</v>
+        <v>0.58</v>
       </c>
       <c r="P58" t="n">
-        <v>0.555</v>
+        <v>0.5708333333333333</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.01274754878398198</v>
+        <v>0.01662494778604999</v>
       </c>
       <c r="R58" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.120184977849324</v>
+        <v>0.989586353302002</v>
       </c>
       <c r="B59" t="n">
-        <v>0.05747907874185305</v>
+        <v>0.1240075242769623</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01757653554280599</v>
+        <v>0.01271406809488932</v>
       </c>
       <c r="D59" t="n">
-        <v>0.002356879073243705</v>
+        <v>0.001531466969859192</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1949100254434594</v>
+        <v>0.252545207122277</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1588064576809591</v>
+        <v>0.2530775917657002</v>
       </c>
       <c r="G59" t="n">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>95</v>
+      </c>
+      <c r="J59" t="n">
+        <v>16</v>
+      </c>
+      <c r="K59" t="n">
         <v>5</v>
       </c>
-      <c r="I59" t="n">
-        <v>122</v>
-      </c>
-      <c r="J59" t="n">
-        <v>38</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4</v>
-      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.19491002544345937), 'learning_rate': np.float64(0.15880645768095905), 'max_bins': 180, 'max_depth': 5, 'max_iter': 122, 'max_leaf_nodes': 38, 'min_samples_leaf': 4}</t>
+          <t>{'l2_regularization': np.float64(0.252545207122277), 'learning_rate': np.float64(0.25307759176570016), 'max_bins': 211, 'max_depth': 6, 'max_iter': 95, 'max_leaf_nodes': 16, 'min_samples_leaf': 5}</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>0.535</v>
+        <v>0.5175</v>
       </c>
       <c r="N59" t="n">
-        <v>0.5775</v>
+        <v>0.58</v>
       </c>
       <c r="O59" t="n">
-        <v>0.5775</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P59" t="n">
-        <v>0.5633333333333334</v>
+        <v>0.5525</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.02003469213361884</v>
+        <v>0.02606082628518649</v>
       </c>
       <c r="R59" t="n">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.569727579752604</v>
+        <v>4.292289177576701</v>
       </c>
       <c r="B60" t="n">
-        <v>0.157929090526257</v>
+        <v>0.2583247089566996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02686969439188639</v>
+        <v>0.0485073725382487</v>
       </c>
       <c r="D60" t="n">
-        <v>0.002035094302542723</v>
+        <v>0.00273293538237793</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9103277017325226</v>
+        <v>0.1187517732188552</v>
       </c>
       <c r="F60" t="n">
-        <v>0.08691849925563556</v>
+        <v>0.2284395365403417</v>
       </c>
       <c r="G60" t="n">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="H60" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I60" t="n">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="J60" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="K60" t="n">
         <v>3</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.9103277017325226), 'learning_rate': np.float64(0.08691849925563556), 'max_bins': 124, 'max_depth': 13, 'max_iter': 174, 'max_leaf_nodes': 38, 'min_samples_leaf': 3}</t>
+          <t>{'l2_regularization': np.float64(0.11875177321885522), 'learning_rate': np.float64(0.22843953654034174), 'max_bins': 221, 'max_depth': 9, 'max_iter': 291, 'max_leaf_nodes': 25, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>0.5475</v>
+        <v>0.5425</v>
       </c>
       <c r="N60" t="n">
-        <v>0.5775</v>
+        <v>0.5525</v>
       </c>
       <c r="O60" t="n">
-        <v>0.5675</v>
+        <v>0.55</v>
       </c>
       <c r="P60" t="n">
-        <v>0.5641666666666666</v>
+        <v>0.5483333333333333</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01247219128924648</v>
+        <v>0.004249182927993998</v>
       </c>
       <c r="R60" t="n">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.704220056533813</v>
+        <v>2.72522242863973</v>
       </c>
       <c r="B61" t="n">
-        <v>0.358948196934642</v>
+        <v>0.1493562935549218</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08335010210673015</v>
+        <v>0.06059034665425619</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00639774701647946</v>
+        <v>0.007431406195271571</v>
       </c>
       <c r="E61" t="n">
-        <v>0.2294177112877738</v>
+        <v>0.534266925322998</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2141537764688648</v>
+        <v>0.1985172091776863</v>
       </c>
       <c r="G61" t="n">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="H61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I61" t="n">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="J61" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="K61" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.22941771128777377), 'learning_rate': np.float64(0.2141537764688648), 'max_bins': 149, 'max_depth': 14, 'max_iter': 359, 'max_leaf_nodes': 84, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.534266925322998), 'learning_rate': np.float64(0.19851720917768628), 'max_bins': 126, 'max_depth': 10, 'max_iter': 428, 'max_leaf_nodes': 26, 'min_samples_leaf': 19}</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>0.55</v>
+        <v>0.5425</v>
       </c>
       <c r="N61" t="n">
-        <v>0.5575</v>
+        <v>0.5625</v>
       </c>
       <c r="O61" t="n">
-        <v>0.5525</v>
+        <v>0.5775</v>
       </c>
       <c r="P61" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.5608333333333334</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.003118047822311601</v>
+        <v>0.01433720877840439</v>
       </c>
       <c r="R61" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.753611485163371</v>
+        <v>1.596859375635783</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1034912358677678</v>
+        <v>0.02432108827914722</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04996848106384277</v>
+        <v>0.02817630767822266</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008128285204340583</v>
+        <v>0.001598948223826933</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6649105646756718</v>
+        <v>0.3827749871310953</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06901385360786513</v>
+        <v>0.09824908968925165</v>
       </c>
       <c r="G62" t="n">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="J62" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K62" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6649105646756718), 'learning_rate': np.float64(0.06901385360786513), 'max_bins': 185, 'max_depth': 12, 'max_iter': 325, 'max_leaf_nodes': 55, 'min_samples_leaf': 13}</t>
+          <t>{'l2_regularization': np.float64(0.38277498713109526), 'learning_rate': np.float64(0.09824908968925165), 'max_bins': 164, 'max_depth': 5, 'max_iter': 183, 'max_leaf_nodes': 27, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>0.5475</v>
       </c>
       <c r="N62" t="n">
-        <v>0.5725</v>
+        <v>0.57</v>
       </c>
       <c r="O62" t="n">
-        <v>0.57</v>
+        <v>0.5625</v>
       </c>
       <c r="P62" t="n">
-        <v>0.5633333333333334</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01124228130269337</v>
+        <v>0.009354143466934842</v>
       </c>
       <c r="R62" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9105677604675293</v>
+        <v>2.785709619522095</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04727725888981156</v>
+        <v>0.1807888889291353</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0193793773651123</v>
+        <v>0.06226356824239095</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00356583377063134</v>
+        <v>0.005751096086074841</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8098628907101354</v>
+        <v>0.5303162566106083</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2446943812579462</v>
+        <v>0.1571132785509342</v>
       </c>
       <c r="G63" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H63" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>111</v>
+        <v>385</v>
       </c>
       <c r="J63" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K63" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8098628907101354), 'learning_rate': np.float64(0.24469438125794624), 'max_bins': 187, 'max_depth': 11, 'max_iter': 111, 'max_leaf_nodes': 23, 'min_samples_leaf': 17}</t>
+          <t>{'l2_regularization': np.float64(0.5303162566106083), 'learning_rate': np.float64(0.15711327855093415), 'max_bins': 186, 'max_depth': 5, 'max_iter': 385, 'max_leaf_nodes': 18, 'min_samples_leaf': 12}</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="N63" t="n">
-        <v>0.555</v>
+        <v>0.57</v>
       </c>
       <c r="O63" t="n">
-        <v>0.595</v>
+        <v>0.5725</v>
       </c>
       <c r="P63" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5541666666666666</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.02867441755680874</v>
+        <v>0.02418103021424483</v>
       </c>
       <c r="R63" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>4.262513717015584</v>
+        <v>2.170408884684245</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04768859892889318</v>
+        <v>0.05979944027377196</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07240962982177734</v>
+        <v>0.03802156448364258</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01897443225270726</v>
+        <v>0.002034819545776517</v>
       </c>
       <c r="E64" t="n">
-        <v>0.659951674981375</v>
+        <v>0.5288248872273111</v>
       </c>
       <c r="F64" t="n">
-        <v>0.06198775986143062</v>
+        <v>0.2017396057370866</v>
       </c>
       <c r="G64" t="n">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I64" t="n">
-        <v>470</v>
+        <v>224</v>
       </c>
       <c r="J64" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K64" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.659951674981375), 'learning_rate': np.float64(0.061987759861430625), 'max_bins': 225, 'max_depth': 10, 'max_iter': 470, 'max_leaf_nodes': 35, 'min_samples_leaf': 19}</t>
+          <t>{'l2_regularization': np.float64(0.5288248872273111), 'learning_rate': np.float64(0.20173960573708657), 'max_bins': 191, 'max_depth': 14, 'max_iter': 224, 'max_leaf_nodes': 15, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="N64" t="n">
-        <v>0.5725</v>
+        <v>0.58</v>
       </c>
       <c r="O64" t="n">
-        <v>0.575</v>
+        <v>0.5675</v>
       </c>
       <c r="P64" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.5533333333333332</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.004249182927993998</v>
+        <v>0.02932102014293198</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.91253383954366</v>
+        <v>4.945083777109782</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2846442070777561</v>
+        <v>0.346964967453563</v>
       </c>
       <c r="C65" t="n">
-        <v>0.05748939514160156</v>
+        <v>0.05248109499613444</v>
       </c>
       <c r="D65" t="n">
-        <v>0.008789154010589915</v>
+        <v>0.00580638064826842</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2004518548398975</v>
+        <v>0.5673214953943176</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1683674630998677</v>
+        <v>0.07818656346408498</v>
       </c>
       <c r="G65" t="n">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="H65" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I65" t="n">
-        <v>313</v>
+        <v>390</v>
       </c>
       <c r="J65" t="n">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="K65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.20045185483989747), 'learning_rate': np.float64(0.16836746309986775), 'max_bins': 190, 'max_depth': 9, 'max_iter': 313, 'max_leaf_nodes': 93, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.5673214953943176), 'learning_rate': np.float64(0.07818656346408498), 'max_bins': 248, 'max_depth': 5, 'max_iter': 390, 'max_leaf_nodes': 21, 'min_samples_leaf': 1}</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>0.5325</v>
+        <v>0.525</v>
       </c>
       <c r="N65" t="n">
-        <v>0.5425</v>
+        <v>0.58</v>
       </c>
       <c r="O65" t="n">
-        <v>0.5675</v>
+        <v>0.57</v>
       </c>
       <c r="P65" t="n">
-        <v>0.5475</v>
+        <v>0.5583333333333332</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01471960144387976</v>
+        <v>0.02392116682401218</v>
       </c>
       <c r="R65" t="n">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.279693682988485</v>
+        <v>4.572929461797078</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0830171428420157</v>
+        <v>0.2272186472964207</v>
       </c>
       <c r="C66" t="n">
-        <v>0.07332905133565266</v>
+        <v>0.06847079594930013</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03305345914041576</v>
+        <v>0.009850210267605767</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9092236234610998</v>
+        <v>0.9796329392055539</v>
       </c>
       <c r="F66" t="n">
-        <v>0.03970568587236672</v>
+        <v>0.2796090407265917</v>
       </c>
       <c r="G66" t="n">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="H66" t="n">
         <v>6</v>
       </c>
       <c r="I66" t="n">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="J66" t="n">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="K66" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.9092236234610998), 'learning_rate': np.float64(0.039705685872366725), 'max_bins': 166, 'max_depth': 6, 'max_iter': 405, 'max_leaf_nodes': 48, 'min_samples_leaf': 11}</t>
+          <t>{'l2_regularization': np.float64(0.9796329392055539), 'learning_rate': np.float64(0.2796090407265917), 'max_bins': 240, 'max_depth': 6, 'max_iter': 471, 'max_leaf_nodes': 73, 'min_samples_leaf': 15}</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>0.535</v>
+        <v>0.5275</v>
       </c>
       <c r="N66" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="O66" t="n">
-        <v>0.5625</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P66" t="n">
-        <v>0.5591666666666667</v>
+        <v>0.5575</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01852175897574403</v>
+        <v>0.02354074481970922</v>
       </c>
       <c r="R66" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.801295836766561</v>
+        <v>3.879201014836629</v>
       </c>
       <c r="B67" t="n">
-        <v>0.01762800780183063</v>
+        <v>0.2527490852179196</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04578447341918945</v>
+        <v>0.05159195264180502</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001439244672971896</v>
+        <v>0.004822164987587327</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1058727129803483</v>
+        <v>0.8852514348725502</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2035655871001835</v>
+        <v>0.2658694238720699</v>
       </c>
       <c r="G67" t="n">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I67" t="n">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="J67" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="K67" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.10587271298034828), 'learning_rate': np.float64(0.2035655871001835), 'max_bins': 162, 'max_depth': 7, 'max_iter': 355, 'max_leaf_nodes': 80, 'min_samples_leaf': 6}</t>
+          <t>{'l2_regularization': np.float64(0.8852514348725502), 'learning_rate': np.float64(0.2658694238720699), 'max_bins': 241, 'max_depth': 13, 'max_iter': 292, 'max_leaf_nodes': 41, 'min_samples_leaf': 13}</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>0.5275</v>
+        <v>0.5475</v>
       </c>
       <c r="N67" t="n">
-        <v>0.5675</v>
+        <v>0.5725</v>
       </c>
       <c r="O67" t="n">
-        <v>0.5875</v>
+        <v>0.57</v>
       </c>
       <c r="P67" t="n">
-        <v>0.5608333333333334</v>
+        <v>0.5633333333333334</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.02494438257849297</v>
+        <v>0.01124228130269337</v>
       </c>
       <c r="R67" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.917332172393799</v>
+        <v>1.027827342351278</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1431810542509773</v>
+        <v>0.05514372810842033</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04375934600830078</v>
+        <v>0.03588024775187174</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005451297245447271</v>
+        <v>0.003914273109753433</v>
       </c>
       <c r="E68" t="n">
-        <v>0.394548999624596</v>
+        <v>0.4688176601946314</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0734138230108836</v>
+        <v>0.1376855442354073</v>
       </c>
       <c r="G68" t="n">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="J68" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K68" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.394548999624596), 'learning_rate': np.float64(0.0734138230108836), 'max_bins': 243, 'max_depth': 4, 'max_iter': 371, 'max_leaf_nodes': 62, 'min_samples_leaf': 16}</t>
+          <t>{'l2_regularization': np.float64(0.46881766019463145), 'learning_rate': np.float64(0.1376855442354073), 'max_bins': 152, 'max_depth': 3, 'max_iter': 338, 'max_leaf_nodes': 64, 'min_samples_leaf': 2}</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>0.525</v>
+        <v>0.5075</v>
       </c>
       <c r="N68" t="n">
-        <v>0.5525</v>
+        <v>0.5825</v>
       </c>
       <c r="O68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.555</v>
       </c>
       <c r="P68" t="n">
-        <v>0.5458333333333334</v>
+        <v>0.5483333333333333</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.0150462250710565</v>
+        <v>0.03097938382573521</v>
       </c>
       <c r="R68" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.291197538375854</v>
+        <v>4.333386262257894</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2640171415282671</v>
+        <v>0.315356180250366</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04241315523783366</v>
+        <v>0.06880529721577962</v>
       </c>
       <c r="D69" t="n">
-        <v>0.007634747838230893</v>
+        <v>0.02311599986090511</v>
       </c>
       <c r="E69" t="n">
-        <v>0.05857550428505276</v>
+        <v>0.4721025422233999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2797751773226778</v>
+        <v>0.2939630962507199</v>
       </c>
       <c r="G69" t="n">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I69" t="n">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="J69" t="n">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="K69" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.05857550428505276), 'learning_rate': np.float64(0.2797751773226778), 'max_bins': 204, 'max_depth': 6, 'max_iter': 328, 'max_leaf_nodes': 47, 'min_samples_leaf': 16}</t>
+          <t>{'l2_regularization': np.float64(0.47210254222339987), 'learning_rate': np.float64(0.2939630962507199), 'max_bins': 106, 'max_depth': 10, 'max_iter': 358, 'max_leaf_nodes': 98, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>0.5125</v>
+        <v>0.5475</v>
       </c>
       <c r="N69" t="n">
-        <v>0.5675</v>
+        <v>0.5725</v>
       </c>
       <c r="O69" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="P69" t="n">
-        <v>0.5483333333333333</v>
+        <v>0.57</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.02535854009117158</v>
+        <v>0.01744037461371362</v>
       </c>
       <c r="R69" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.431592623392741</v>
+        <v>9.281371831893921</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08146309597510669</v>
+        <v>0.8838051532476815</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02591180801391602</v>
+        <v>0.0709833304087321</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0005042062371802066</v>
+        <v>0.01047661215440732</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9987845543695182</v>
+        <v>0.5406882339260004</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1647251848213135</v>
+        <v>0.04404444512252585</v>
       </c>
       <c r="G70" t="n">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="H70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I70" t="n">
-        <v>212</v>
+        <v>350</v>
       </c>
       <c r="J70" t="n">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="K70" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.9987845543695182), 'learning_rate': np.float64(0.16472518482131354), 'max_bins': 133, 'max_depth': 6, 'max_iter': 212, 'max_leaf_nodes': 28, 'min_samples_leaf': 13}</t>
+          <t>{'l2_regularization': np.float64(0.5406882339260004), 'learning_rate': np.float64(0.044044445122525845), 'max_bins': 166, 'max_depth': 8, 'max_iter': 350, 'max_leaf_nodes': 88, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="N70" t="n">
+        <v>0.5675</v>
+      </c>
+      <c r="O70" t="n">
         <v>0.57</v>
       </c>
-      <c r="O70" t="n">
-        <v>0.575</v>
-      </c>
       <c r="P70" t="n">
-        <v>0.5583333333333333</v>
+        <v>0.5625</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.02013840995599092</v>
+        <v>0.008897565210026059</v>
       </c>
       <c r="R70" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.149204254150391</v>
+        <v>0.9547654787699381</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05469850472279769</v>
+        <v>0.004149452372761242</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02644896507263184</v>
+        <v>0.03940622011820475</v>
       </c>
       <c r="D71" t="n">
-        <v>0.003693987362245172</v>
+        <v>0.005587566091269037</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5028299353338149</v>
+        <v>0.6933411005566787</v>
       </c>
       <c r="F71" t="n">
-        <v>0.09561394443019862</v>
+        <v>0.1965367313183738</v>
       </c>
       <c r="G71" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="H71" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>158</v>
+        <v>334</v>
       </c>
       <c r="J71" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K71" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5028299353338149), 'learning_rate': np.float64(0.09561394443019862), 'max_bins': 104, 'max_depth': 11, 'max_iter': 158, 'max_leaf_nodes': 69, 'min_samples_leaf': 15}</t>
+          <t>{'l2_regularization': np.float64(0.6933411005566787), 'learning_rate': np.float64(0.19653673131837382), 'max_bins': 133, 'max_depth': 3, 'max_iter': 334, 'max_leaf_nodes': 72, 'min_samples_leaf': 4}</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>0.5525</v>
+        <v>0.4975</v>
       </c>
       <c r="N71" t="n">
-        <v>0.5825</v>
+        <v>0.55</v>
       </c>
       <c r="O71" t="n">
-        <v>0.5875</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P71" t="n">
-        <v>0.5741666666666667</v>
+        <v>0.5358333333333334</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01545603082582619</v>
+        <v>0.0274114736723309</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.692127704620361</v>
+        <v>3.174686193466187</v>
       </c>
       <c r="B72" t="n">
-        <v>0.05013097174833329</v>
+        <v>0.2535848876347914</v>
       </c>
       <c r="C72" t="n">
-        <v>0.02880946795145671</v>
+        <v>0.07284069061279297</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0001895152611166418</v>
+        <v>0.01737475965716801</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3377677697923779</v>
+        <v>0.0972452382494492</v>
       </c>
       <c r="F72" t="n">
-        <v>0.04771679326910788</v>
+        <v>0.2040295318513405</v>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H72" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I72" t="n">
-        <v>222</v>
+        <v>490</v>
       </c>
       <c r="J72" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="K72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.3377677697923779), 'learning_rate': np.float64(0.04771679326910788), 'max_bins': 100, 'max_depth': 10, 'max_iter': 222, 'max_leaf_nodes': 27, 'min_samples_leaf': 8}</t>
+          <t>{'l2_regularization': np.float64(0.0972452382494492), 'learning_rate': np.float64(0.20402953185134048), 'max_bins': 110, 'max_depth': 5, 'max_iter': 490, 'max_leaf_nodes': 96, 'min_samples_leaf': 2}</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>0.555</v>
+        <v>0.54</v>
       </c>
       <c r="N72" t="n">
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="O72" t="n">
-        <v>0.5775</v>
+        <v>0.5625</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5725000000000001</v>
+        <v>0.5591666666666667</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01274754878398193</v>
+        <v>0.01448178933081894</v>
       </c>
       <c r="R72" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.240962823232015</v>
+        <v>2.167709589004517</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02429773691700738</v>
+        <v>0.09596700072921292</v>
       </c>
       <c r="C73" t="n">
-        <v>0.008702357610066732</v>
+        <v>0.03467893600463867</v>
       </c>
       <c r="D73" t="n">
-        <v>0.001248712451781726</v>
+        <v>0.004589154993699895</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8856893362019823</v>
+        <v>0.3986205431676509</v>
       </c>
       <c r="F73" t="n">
-        <v>0.05832444675093698</v>
+        <v>0.2452080669286277</v>
       </c>
       <c r="G73" t="n">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I73" t="n">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="J73" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K73" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8856893362019823), 'learning_rate': np.float64(0.05832444675093698), 'max_bins': 229, 'max_depth': 3, 'max_iter': 79, 'max_leaf_nodes': 43, 'min_samples_leaf': 18}</t>
+          <t>{'l2_regularization': np.float64(0.39862054316765094), 'learning_rate': np.float64(0.24520806692862773), 'max_bins': 169, 'max_depth': 7, 'max_iter': 246, 'max_leaf_nodes': 16, 'min_samples_leaf': 2}</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>0.535</v>
+        <v>0.53</v>
       </c>
       <c r="N73" t="n">
-        <v>0.5625</v>
+        <v>0.59</v>
       </c>
       <c r="O73" t="n">
-        <v>0.5725</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>0.5566666666666668</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01585524799203369</v>
+        <v>0.02460803843372231</v>
       </c>
       <c r="R73" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3.283915519714355</v>
+        <v>0.6071714560190836</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2110914386243064</v>
+        <v>0.04329164687442243</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03011210759480794</v>
+        <v>0.02010718981424968</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0003164870113925311</v>
+        <v>0.00338498711112999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1663781622094439</v>
+        <v>0.784791079518055</v>
       </c>
       <c r="F74" t="n">
-        <v>0.08460046998418008</v>
+        <v>0.2477036096285694</v>
       </c>
       <c r="G74" t="n">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="H74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J74" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K74" t="n">
         <v>7</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.1663781622094439), 'learning_rate': np.float64(0.08460046998418008), 'max_bins': 202, 'max_depth': 8, 'max_iter': 211, 'max_leaf_nodes': 57, 'min_samples_leaf': 7}</t>
+          <t>{'l2_regularization': np.float64(0.784791079518055), 'learning_rate': np.float64(0.24770360962856935), 'max_bins': 177, 'max_depth': 3, 'max_iter': 212, 'max_leaf_nodes': 74, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>0.55</v>
+        <v>0.515</v>
       </c>
       <c r="N74" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="O74" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5675</v>
       </c>
       <c r="P74" t="n">
-        <v>0.5666666666666668</v>
+        <v>0.5508333333333333</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01699673171197592</v>
+        <v>0.02535854009117155</v>
       </c>
       <c r="R74" t="n">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.284937699635824</v>
+        <v>0.9250185489654541</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1880777121142611</v>
+        <v>0.01506449553636646</v>
       </c>
       <c r="C75" t="n">
-        <v>0.05167055130004883</v>
+        <v>0.02575063705444336</v>
       </c>
       <c r="D75" t="n">
-        <v>0.008491323114497079</v>
+        <v>0.0103156404935357</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5206691629781606</v>
+        <v>0.8276126698151687</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2237856547835909</v>
+        <v>0.05040606636345948</v>
       </c>
       <c r="G75" t="n">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c r="H75" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I75" t="n">
-        <v>499</v>
+        <v>107</v>
       </c>
       <c r="J75" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K75" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5206691629781606), 'learning_rate': np.float64(0.22378565478359091), 'max_bins': 153, 'max_depth': 4, 'max_iter': 499, 'max_leaf_nodes': 55, 'min_samples_leaf': 6}</t>
+          <t>{'l2_regularization': np.float64(0.8276126698151687), 'learning_rate': np.float64(0.050406066363459484), 'max_bins': 253, 'max_depth': 6, 'max_iter': 107, 'max_leaf_nodes': 20, 'min_samples_leaf': 17}</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>0.5125</v>
+        <v>0.5075</v>
       </c>
       <c r="N75" t="n">
-        <v>0.5675</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O75" t="n">
-        <v>0.5525</v>
+        <v>0.57</v>
       </c>
       <c r="P75" t="n">
-        <v>0.5441666666666667</v>
+        <v>0.5474999999999999</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.02321398046197355</v>
+        <v>0.02835783254528926</v>
       </c>
       <c r="R75" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.444218476613363</v>
+        <v>4.296456654866536</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1192125280298519</v>
+        <v>0.1577670394262773</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02937428156534831</v>
+        <v>0.05285787582397461</v>
       </c>
       <c r="D76" t="n">
-        <v>0.004400924037453097</v>
+        <v>0.0002911693831825654</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8429082967435273</v>
+        <v>0.9366665134954554</v>
       </c>
       <c r="F76" t="n">
-        <v>0.05859826998141269</v>
+        <v>0.09517026010579308</v>
       </c>
       <c r="G76" t="n">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>270</v>
+        <v>422</v>
       </c>
       <c r="J76" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8429082967435273), 'learning_rate': np.float64(0.05859826998141269), 'max_bins': 186, 'max_depth': 4, 'max_iter': 270, 'max_leaf_nodes': 15, 'min_samples_leaf': 2}</t>
+          <t>{'l2_regularization': np.float64(0.9366665134954554), 'learning_rate': np.float64(0.09517026010579308), 'max_bins': 205, 'max_depth': 7, 'max_iter': 422, 'max_leaf_nodes': 34, 'min_samples_leaf': 14}</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>0.525</v>
+        <v>0.5375</v>
       </c>
       <c r="N76" t="n">
-        <v>0.5725</v>
+        <v>0.57</v>
       </c>
       <c r="O76" t="n">
-        <v>0.5675</v>
+        <v>0.58</v>
       </c>
       <c r="P76" t="n">
-        <v>0.555</v>
+        <v>0.5625</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.02131118642090736</v>
+        <v>0.01814295088089769</v>
       </c>
       <c r="R76" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.780377785364787</v>
+        <v>0.4433452288309733</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1313923908978921</v>
+        <v>0.04351560464482104</v>
       </c>
       <c r="C77" t="n">
-        <v>0.06794532140096028</v>
+        <v>0.01257975896199544</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01125534967605826</v>
+        <v>0.001118672241798775</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0005390924779787865</v>
+        <v>0.5329220708323287</v>
       </c>
       <c r="F77" t="n">
-        <v>0.02236670612279588</v>
+        <v>0.2461861138032353</v>
       </c>
       <c r="G77" t="n">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="H77" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>412</v>
+        <v>98</v>
       </c>
       <c r="J77" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="K77" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.0005390924779787865), 'learning_rate': np.float64(0.022366706122795878), 'max_bins': 132, 'max_depth': 11, 'max_iter': 412, 'max_leaf_nodes': 78, 'min_samples_leaf': 19}</t>
+          <t>{'l2_regularization': np.float64(0.5329220708323287), 'learning_rate': np.float64(0.2461861138032353), 'max_bins': 150, 'max_depth': 4, 'max_iter': 98, 'max_leaf_nodes': 55, 'min_samples_leaf': 10}</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>0.5425</v>
+        <v>0.535</v>
       </c>
       <c r="N77" t="n">
-        <v>0.5375</v>
+        <v>0.5725</v>
       </c>
       <c r="O77" t="n">
-        <v>0.5525</v>
+        <v>0.5675</v>
       </c>
       <c r="P77" t="n">
-        <v>0.5441666666666667</v>
+        <v>0.5583333333333332</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.006236095644623242</v>
+        <v>0.01662494778604999</v>
       </c>
       <c r="R77" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6602557500203451</v>
+        <v>5.193525552749634</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03069782091681356</v>
+        <v>0.1693984403753617</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0167849858601888</v>
+        <v>0.04241442680358887</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0002262722812654892</v>
+        <v>0.01268119286489765</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4985526307620518</v>
+        <v>0.9624017816480371</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1117086470711085</v>
+        <v>0.2985288106164428</v>
       </c>
       <c r="G78" t="n">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I78" t="n">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="J78" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K78" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.4985526307620518), 'learning_rate': np.float64(0.1117086470711085), 'max_bins': 112, 'max_depth': 6, 'max_iter': 137, 'max_leaf_nodes': 40, 'min_samples_leaf': 18}</t>
+          <t>{'l2_regularization': np.float64(0.9624017816480371), 'learning_rate': np.float64(0.29852881061644276), 'max_bins': 233, 'max_depth': 7, 'max_iter': 233, 'max_leaf_nodes': 37, 'min_samples_leaf': 2}</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="N78" t="n">
-        <v>0.575</v>
+        <v>0.555</v>
       </c>
       <c r="O78" t="n">
-        <v>0.57</v>
+        <v>0.5475</v>
       </c>
       <c r="P78" t="n">
-        <v>0.555</v>
+        <v>0.5475</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.02483277404291887</v>
+        <v>0.006123724356957951</v>
       </c>
       <c r="R78" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.890353520711263</v>
+        <v>3.647346655527751</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4661125423297394</v>
+        <v>0.2931497777668383</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04916691780090332</v>
+        <v>0.05485320091247559</v>
       </c>
       <c r="D79" t="n">
-        <v>0.003169361875791995</v>
+        <v>0.009710218240086757</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04903851334045428</v>
+        <v>0.01545845808664614</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01570741255122983</v>
+        <v>0.01655008598126186</v>
       </c>
       <c r="G79" t="n">
-        <v>114</v>
+        <v>237</v>
       </c>
       <c r="H79" t="n">
         <v>9</v>
       </c>
       <c r="I79" t="n">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="J79" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="K79" t="n">
         <v>3</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.04903851334045428), 'learning_rate': np.float64(0.01570741255122983), 'max_bins': 114, 'max_depth': 9, 'max_iter': 233, 'max_leaf_nodes': 96, 'min_samples_leaf': 3}</t>
+          <t>{'l2_regularization': np.float64(0.015458458086646143), 'learning_rate': np.float64(0.016550085981261856), 'max_bins': 237, 'max_depth': 9, 'max_iter': 361, 'max_leaf_nodes': 14, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>0.5375</v>
+        <v>0.5475</v>
       </c>
       <c r="N79" t="n">
-        <v>0.575</v>
+        <v>0.57</v>
       </c>
       <c r="O79" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="P79" t="n">
-        <v>0.5591666666666666</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.01585524799203369</v>
+        <v>0.01006920497799545</v>
       </c>
       <c r="R79" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.093726952870687</v>
+        <v>2.031522432963053</v>
       </c>
       <c r="B80" t="n">
-        <v>0.07355174393408277</v>
+        <v>0.1434335941690748</v>
       </c>
       <c r="C80" t="n">
-        <v>0.03159578641255697</v>
+        <v>0.03350146611531576</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0002207117707037985</v>
+        <v>0.004246768458875313</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8551980031851808</v>
+        <v>0.1111895614615706</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1272180104408027</v>
+        <v>0.122788143749985</v>
       </c>
       <c r="G80" t="n">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I80" t="n">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="J80" t="n">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="K80" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8551980031851808), 'learning_rate': np.float64(0.1272180104408027), 'max_bins': 134, 'max_depth': 6, 'max_iter': 259, 'max_leaf_nodes': 84, 'min_samples_leaf': 8}</t>
+          <t>{'l2_regularization': np.float64(0.11118956146157055), 'learning_rate': np.float64(0.12278814374998497), 'max_bins': 189, 'max_depth': 13, 'max_iter': 216, 'max_leaf_nodes': 23, 'min_samples_leaf': 17}</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>0.5275</v>
+        <v>0.5525</v>
       </c>
       <c r="N80" t="n">
-        <v>0.5625</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O80" t="n">
-        <v>0.5775</v>
+        <v>0.5675</v>
       </c>
       <c r="P80" t="n">
-        <v>0.5558333333333333</v>
+        <v>0.5616666666666666</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.02094967514996091</v>
+        <v>0.006561673228343172</v>
       </c>
       <c r="R80" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.058586200078328</v>
+        <v>2.680462757746378</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1123598342797101</v>
+        <v>0.1579354627697742</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02878904342651367</v>
+        <v>0.06035161018371582</v>
       </c>
       <c r="D81" t="n">
-        <v>0.005115579071514869</v>
+        <v>0.015138743336167</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5454733119926386</v>
+        <v>0.3488438583600477</v>
       </c>
       <c r="F81" t="n">
-        <v>0.06270506775028986</v>
+        <v>0.2139641949193878</v>
       </c>
       <c r="G81" t="n">
         <v>122</v>
       </c>
       <c r="H81" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I81" t="n">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="J81" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5454733119926386), 'learning_rate': np.float64(0.06270506775028986), 'max_bins': 122, 'max_depth': 4, 'max_iter': 271, 'max_leaf_nodes': 57, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.3488438583600477), 'learning_rate': np.float64(0.21396419491938778), 'max_bins': 122, 'max_depth': 12, 'max_iter': 386, 'max_leaf_nodes': 33, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="N81" t="n">
-        <v>0.555</v>
+        <v>0.545</v>
       </c>
       <c r="O81" t="n">
-        <v>0.55</v>
+        <v>0.575</v>
       </c>
       <c r="P81" t="n">
-        <v>0.545</v>
+        <v>0.5533333333333333</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01080123449734644</v>
+        <v>0.01545603082582614</v>
       </c>
       <c r="R81" t="n">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.597142219543457</v>
+        <v>1.939530452092489</v>
       </c>
       <c r="B82" t="n">
-        <v>0.03795882978616659</v>
+        <v>0.1335484726478245</v>
       </c>
       <c r="C82" t="n">
-        <v>0.02398220698038737</v>
+        <v>0.03307565053304037</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003799039382424252</v>
+        <v>0.000830611147298894</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4412750536687532</v>
+        <v>0.1301222441278855</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2699630978813445</v>
+        <v>0.01575631905378257</v>
       </c>
       <c r="G82" t="n">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I82" t="n">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="J82" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="K82" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.4412750536687532), 'learning_rate': np.float64(0.2699630978813445), 'max_bins': 126, 'max_depth': 3, 'max_iter': 260, 'max_leaf_nodes': 61, 'min_samples_leaf': 12}</t>
+          <t>{'l2_regularization': np.float64(0.13012224412788553), 'learning_rate': np.float64(0.015756319053782566), 'max_bins': 189, 'max_depth': 7, 'max_iter': 226, 'max_leaf_nodes': 96, 'min_samples_leaf': 13}</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>0.525</v>
+        <v>0.54</v>
       </c>
       <c r="N82" t="n">
-        <v>0.54</v>
+        <v>0.5425</v>
       </c>
       <c r="O82" t="n">
-        <v>0.5675</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P82" t="n">
-        <v>0.5441666666666666</v>
+        <v>0.5475</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01759892673495239</v>
+        <v>0.008897565210026111</v>
       </c>
       <c r="R82" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.732494036356608</v>
+        <v>1.759795665740967</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1383782458291743</v>
+        <v>0.02173631680673319</v>
       </c>
       <c r="C83" t="n">
-        <v>0.02019516626993815</v>
+        <v>0.01634518305460612</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0002588080501625757</v>
+        <v>0.001751050667354258</v>
       </c>
       <c r="E83" t="n">
-        <v>0.07299476323994081</v>
+        <v>0.7240671119194176</v>
       </c>
       <c r="F83" t="n">
-        <v>0.04639730582906857</v>
+        <v>0.2782882918865597</v>
       </c>
       <c r="G83" t="n">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H83" t="n">
+        <v>9</v>
+      </c>
+      <c r="I83" t="n">
+        <v>90</v>
+      </c>
+      <c r="J83" t="n">
+        <v>72</v>
+      </c>
+      <c r="K83" t="n">
         <v>7</v>
       </c>
-      <c r="I83" t="n">
-        <v>146</v>
-      </c>
-      <c r="J83" t="n">
-        <v>57</v>
-      </c>
-      <c r="K83" t="n">
-        <v>9</v>
-      </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.07299476323994081), 'learning_rate': np.float64(0.04639730582906857), 'max_bins': 226, 'max_depth': 7, 'max_iter': 146, 'max_leaf_nodes': 57, 'min_samples_leaf': 9}</t>
+          <t>{'l2_regularization': np.float64(0.7240671119194176), 'learning_rate': np.float64(0.27828829188655974), 'max_bins': 237, 'max_depth': 9, 'max_iter': 90, 'max_leaf_nodes': 72, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>0.545</v>
+        <v>0.5375</v>
       </c>
       <c r="N83" t="n">
         <v>0.58</v>
       </c>
       <c r="O83" t="n">
-        <v>0.575</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="P83" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5608333333333333</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01545603082582613</v>
+        <v>0.01759892673495239</v>
       </c>
       <c r="R83" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9811507066090902</v>
+        <v>3.210849444071452</v>
       </c>
       <c r="B84" t="n">
-        <v>0.08739755207550765</v>
+        <v>0.01823634922418317</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01972341537475586</v>
+        <v>0.03843307495117188</v>
       </c>
       <c r="D84" t="n">
-        <v>0.002824418355645668</v>
+        <v>0.002007255716727471</v>
       </c>
       <c r="E84" t="n">
-        <v>0.04541401451757809</v>
+        <v>0.6784796118507194</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1188315510914307</v>
+        <v>0.1255162420310778</v>
       </c>
       <c r="G84" t="n">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="H84" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I84" t="n">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="J84" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="K84" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.045414014517578094), 'learning_rate': np.float64(0.11883155109143069), 'max_bins': 146, 'max_depth': 7, 'max_iter': 121, 'max_leaf_nodes': 23, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.6784796118507194), 'learning_rate': np.float64(0.1255162420310778), 'max_bins': 237, 'max_depth': 9, 'max_iter': 257, 'max_leaf_nodes': 57, 'min_samples_leaf': 13}</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>0.5325</v>
       </c>
       <c r="N84" t="n">
-        <v>0.585</v>
+        <v>0.5675</v>
       </c>
       <c r="O84" t="n">
         <v>0.5725</v>
       </c>
       <c r="P84" t="n">
-        <v>0.5633333333333334</v>
+        <v>0.5575</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.02239171473757401</v>
+        <v>0.0177951304200522</v>
       </c>
       <c r="R84" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.820914665857951</v>
+        <v>1.279434998830159</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1458980094008172</v>
+        <v>0.009685203575361184</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02907315889994304</v>
+        <v>0.04053211212158203</v>
       </c>
       <c r="D85" t="n">
-        <v>0.004376865332518239</v>
+        <v>0.00548800963326353</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8084031287801249</v>
+        <v>0.7513608790691361</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2962083050942977</v>
+        <v>0.2369578089347081</v>
       </c>
       <c r="G85" t="n">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="H85" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I85" t="n">
-        <v>194</v>
+        <v>436</v>
       </c>
       <c r="J85" t="n">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="K85" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8084031287801249), 'learning_rate': np.float64(0.29620830509429774), 'max_bins': 203, 'max_depth': 8, 'max_iter': 194, 'max_leaf_nodes': 92, 'min_samples_leaf': 15}</t>
+          <t>{'l2_regularization': np.float64(0.7513608790691361), 'learning_rate': np.float64(0.23695780893470814), 'max_bins': 181, 'max_depth': 3, 'max_iter': 436, 'max_leaf_nodes': 17, 'min_samples_leaf': 6}</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>0.5325</v>
+        <v>0.515</v>
       </c>
       <c r="N85" t="n">
-        <v>0.5375</v>
+        <v>0.5525</v>
       </c>
       <c r="O85" t="n">
-        <v>0.5975</v>
+        <v>0.5525</v>
       </c>
       <c r="P85" t="n">
-        <v>0.5558333333333333</v>
+        <v>0.5399999999999999</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.02953340857778228</v>
+        <v>0.01767766952966368</v>
       </c>
       <c r="R85" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4040036996205648</v>
+        <v>4.836328109105428</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02681462452610777</v>
+        <v>0.2693087175627567</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01507735252380371</v>
+        <v>0.05955274899800619</v>
       </c>
       <c r="D86" t="n">
-        <v>0.002257865081621813</v>
+        <v>0.009669255612403066</v>
       </c>
       <c r="E86" t="n">
-        <v>0.02895233435122646</v>
+        <v>0.8506201264929777</v>
       </c>
       <c r="F86" t="n">
-        <v>0.08337651603028845</v>
+        <v>0.1493403297674123</v>
       </c>
       <c r="G86" t="n">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>133</v>
+        <v>356</v>
       </c>
       <c r="J86" t="n">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="K86" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.02895233435122646), 'learning_rate': np.float64(0.08337651603028845), 'max_bins': 134, 'max_depth': 4, 'max_iter': 133, 'max_leaf_nodes': 79, 'min_samples_leaf': 17}</t>
+          <t>{'l2_regularization': np.float64(0.8506201264929777), 'learning_rate': np.float64(0.14934032976741235), 'max_bins': 241, 'max_depth': 6, 'max_iter': 356, 'max_leaf_nodes': 28, 'min_samples_leaf': 8}</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>0.5225</v>
+        <v>0.545</v>
       </c>
       <c r="N86" t="n">
-        <v>0.57</v>
+        <v>0.5725</v>
       </c>
       <c r="O86" t="n">
-        <v>0.5425</v>
+        <v>0.5625</v>
       </c>
       <c r="P86" t="n">
-        <v>0.5449999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.01947220240924653</v>
+        <v>0.01136515141415487</v>
       </c>
       <c r="R86" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3.662170886993408</v>
+        <v>2.529878536860148</v>
       </c>
       <c r="B87" t="n">
-        <v>0.2045957679022407</v>
+        <v>0.2100948160449208</v>
       </c>
       <c r="C87" t="n">
-        <v>0.05254181226094564</v>
+        <v>0.03333671887715658</v>
       </c>
       <c r="D87" t="n">
-        <v>0.007999731093115062</v>
+        <v>0.002325785783946447</v>
       </c>
       <c r="E87" t="n">
-        <v>0.493366383181909</v>
+        <v>0.188471414298051</v>
       </c>
       <c r="F87" t="n">
-        <v>0.307350882010381</v>
+        <v>0.07565400808234397</v>
       </c>
       <c r="G87" t="n">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
-        <v>378</v>
+        <v>240</v>
       </c>
       <c r="J87" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="K87" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.49336638318190895), 'learning_rate': np.float64(0.30735088201038097), 'max_bins': 247, 'max_depth': 7, 'max_iter': 378, 'max_leaf_nodes': 43, 'min_samples_leaf': 16}</t>
+          <t>{'l2_regularization': np.float64(0.18847141429805103), 'learning_rate': np.float64(0.07565400808234397), 'max_bins': 228, 'max_depth': 10, 'max_iter': 240, 'max_leaf_nodes': 95, 'min_samples_leaf': 19}</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>0.5125</v>
+        <v>0.53</v>
       </c>
       <c r="N87" t="n">
-        <v>0.575</v>
+        <v>0.5675</v>
       </c>
       <c r="O87" t="n">
-        <v>0.585</v>
+        <v>0.57</v>
       </c>
       <c r="P87" t="n">
-        <v>0.5575</v>
+        <v>0.5558333333333333</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0320806275915336</v>
+        <v>0.01829541533341677</v>
       </c>
       <c r="R87" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.31016993522644</v>
+        <v>3.063074270884196</v>
       </c>
       <c r="B88" t="n">
-        <v>0.03090460074924518</v>
+        <v>0.166365469517318</v>
       </c>
       <c r="C88" t="n">
-        <v>0.02159690856933594</v>
+        <v>0.04190436999003092</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003380314124510297</v>
+        <v>0.008493258688282103</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6478808189257667</v>
+        <v>0.02155141535224747</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2729832703384454</v>
+        <v>0.1331549933578448</v>
       </c>
       <c r="G88" t="n">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I88" t="n">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="J88" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6478808189257667), 'learning_rate': np.float64(0.27298327033844544), 'max_bins': 146, 'max_depth': 5, 'max_iter': 166, 'max_leaf_nodes': 25, 'min_samples_leaf': 2}</t>
+          <t>{'l2_regularization': np.float64(0.02155141535224747), 'learning_rate': np.float64(0.1331549933578448), 'max_bins': 171, 'max_depth': 14, 'max_iter': 262, 'max_leaf_nodes': 36, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>0.54</v>
+        <v>0.545</v>
       </c>
       <c r="N88" t="n">
+        <v>0.5525</v>
+      </c>
+      <c r="O88" t="n">
         <v>0.5775</v>
       </c>
-      <c r="O88" t="n">
-        <v>0.5649999999999999</v>
-      </c>
       <c r="P88" t="n">
-        <v>0.5608333333333334</v>
+        <v>0.5583333333333335</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01559023911155807</v>
+        <v>0.01389444333377755</v>
       </c>
       <c r="R88" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>3.882464567820231</v>
+        <v>2.818959871927897</v>
       </c>
       <c r="B89" t="n">
-        <v>0.2949830035305462</v>
+        <v>0.2550186458719337</v>
       </c>
       <c r="C89" t="n">
-        <v>0.03807274500528971</v>
+        <v>0.04097739855448405</v>
       </c>
       <c r="D89" t="n">
-        <v>0.006284478500848745</v>
+        <v>0.00672681273777837</v>
       </c>
       <c r="E89" t="n">
-        <v>0.494239128560368</v>
+        <v>0.1731514661140344</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1506188193551723</v>
+        <v>0.2678850582598467</v>
       </c>
       <c r="G89" t="n">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="H89" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="J89" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.494239128560368), 'learning_rate': np.float64(0.15061881935517232), 'max_bins': 227, 'max_depth': 7, 'max_iter': 253, 'max_leaf_nodes': 65, 'min_samples_leaf': 7}</t>
+          <t>{'l2_regularization': np.float64(0.17315146611403442), 'learning_rate': np.float64(0.2678850582598467), 'max_bins': 124, 'max_depth': 10, 'max_iter': 231, 'max_leaf_nodes': 69, 'min_samples_leaf': 8}</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>0.5425</v>
+        <v>0.5475</v>
       </c>
       <c r="N89" t="n">
-        <v>0.58</v>
+        <v>0.5775</v>
       </c>
       <c r="O89" t="n">
         <v>0.58</v>
       </c>
       <c r="P89" t="n">
-        <v>0.5675</v>
+        <v>0.5683333333333334</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01767766952966368</v>
+        <v>0.01476670428889112</v>
       </c>
       <c r="R89" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.899988094965617</v>
+        <v>1.243650039037069</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2450253526883846</v>
+        <v>0.03038603315094863</v>
       </c>
       <c r="C90" t="n">
-        <v>0.03506724039713541</v>
+        <v>0.03036212921142578</v>
       </c>
       <c r="D90" t="n">
-        <v>0.005950462014533288</v>
+        <v>0.0004368898432086929</v>
       </c>
       <c r="E90" t="n">
-        <v>0.03752387023971815</v>
+        <v>0.7464790655981001</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1436456636347796</v>
+        <v>0.0694696987774982</v>
       </c>
       <c r="G90" t="n">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="H90" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="J90" t="n">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="K90" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.03752387023971815), 'learning_rate': np.float64(0.14364566363477957), 'max_bins': 247, 'max_depth': 10, 'max_iter': 226, 'max_leaf_nodes': 41, 'min_samples_leaf': 13}</t>
+          <t>{'l2_regularization': np.float64(0.7464790655981001), 'learning_rate': np.float64(0.0694696987774982), 'max_bins': 222, 'max_depth': 3, 'max_iter': 380, 'max_leaf_nodes': 64, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>0.555</v>
+        <v>0.53</v>
       </c>
       <c r="N90" t="n">
-        <v>0.5825</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O90" t="n">
-        <v>0.5725</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P90" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5516666666666666</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.01136515141415487</v>
+        <v>0.01545603082582615</v>
       </c>
       <c r="R90" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.187631686528524</v>
+        <v>3.152966896692912</v>
       </c>
       <c r="B91" t="n">
-        <v>0.04639878437492686</v>
+        <v>0.3101093220834131</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0319369633992513</v>
+        <v>0.0431366761525472</v>
       </c>
       <c r="D91" t="n">
-        <v>0.00536724214861033</v>
+        <v>0.003905335461908576</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5785532894996636</v>
+        <v>0.2109737034746728</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1372367570771174</v>
+        <v>0.234072150900658</v>
       </c>
       <c r="G91" t="n">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="H91" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I91" t="n">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="J91" t="n">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="K91" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.5785532894996636), 'learning_rate': np.float64(0.13723675707711738), 'max_bins': 225, 'max_depth': 12, 'max_iter': 232, 'max_leaf_nodes': 20, 'min_samples_leaf': 13}</t>
+          <t>{'l2_regularization': np.float64(0.2109737034746728), 'learning_rate': np.float64(0.23407215090065803), 'max_bins': 101, 'max_depth': 10, 'max_iter': 300, 'max_leaf_nodes': 77, 'min_samples_leaf': 9}</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="N91" t="n">
-        <v>0.5675</v>
+        <v>0.5575</v>
       </c>
       <c r="O91" t="n">
-        <v>0.5725</v>
+        <v>0.5575</v>
       </c>
       <c r="P91" t="n">
-        <v>0.5533333333333333</v>
+        <v>0.5516666666666667</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.02365844927763065</v>
+        <v>0.008249579113843036</v>
       </c>
       <c r="R91" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.2068106333414713</v>
+        <v>0.9568396409352621</v>
       </c>
       <c r="B92" t="n">
-        <v>0.004521613879230731</v>
+        <v>0.06075009036225983</v>
       </c>
       <c r="C92" t="n">
-        <v>0.008459726969401041</v>
+        <v>0.01945225397745768</v>
       </c>
       <c r="D92" t="n">
-        <v>2.595905265335101e-05</v>
+        <v>0.002944138590267143</v>
       </c>
       <c r="E92" t="n">
-        <v>0.03811759207484611</v>
+        <v>0.01367196361401724</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1543063439734551</v>
+        <v>0.08738127908725307</v>
       </c>
       <c r="G92" t="n">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="H92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I92" t="n">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="J92" t="n">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="K92" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.03811759207484611), 'learning_rate': np.float64(0.15430634397345513), 'max_bins': 101, 'max_depth': 4, 'max_iter': 73, 'max_leaf_nodes': 50, 'min_samples_leaf': 13}</t>
+          <t>{'l2_regularization': np.float64(0.013671963614017235), 'learning_rate': np.float64(0.08738127908725307), 'max_bins': 246, 'max_depth': 5, 'max_iter': 151, 'max_leaf_nodes': 89, 'min_samples_leaf': 15}</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>0.5125</v>
+        <v>0.5325</v>
       </c>
       <c r="N92" t="n">
         <v>0.5625</v>
       </c>
       <c r="O92" t="n">
-        <v>0.55</v>
+        <v>0.5425</v>
       </c>
       <c r="P92" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5458333333333333</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.02124591463996996</v>
+        <v>0.01247219128924648</v>
       </c>
       <c r="R92" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.30011002222697</v>
+        <v>2.674311717351278</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1083180314866759</v>
+        <v>0.1567117808812269</v>
       </c>
       <c r="C93" t="n">
-        <v>0.03838467597961426</v>
+        <v>0.04999128977457682</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00885735042801131</v>
+        <v>0.005157280556737259</v>
       </c>
       <c r="E93" t="n">
-        <v>0.607352234958468</v>
+        <v>0.47222504333147</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2739784922790423</v>
+        <v>0.1519494130294555</v>
       </c>
       <c r="G93" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H93" t="n">
+        <v>11</v>
+      </c>
+      <c r="I93" t="n">
+        <v>480</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11</v>
+      </c>
+      <c r="K93" t="n">
         <v>13</v>
       </c>
-      <c r="I93" t="n">
-        <v>229</v>
-      </c>
-      <c r="J93" t="n">
-        <v>45</v>
-      </c>
-      <c r="K93" t="n">
-        <v>5</v>
-      </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.607352234958468), 'learning_rate': np.float64(0.2739784922790423), 'max_bins': 191, 'max_depth': 13, 'max_iter': 229, 'max_leaf_nodes': 45, 'min_samples_leaf': 5}</t>
+          <t>{'l2_regularization': np.float64(0.47222504333147), 'learning_rate': np.float64(0.1519494130294555), 'max_bins': 190, 'max_depth': 11, 'max_iter': 480, 'max_leaf_nodes': 11, 'min_samples_leaf': 13}</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="N93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="O93" t="n">
-        <v>0.5825</v>
+        <v>0.555</v>
       </c>
       <c r="P93" t="n">
-        <v>0.5608333333333334</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.01736055554666638</v>
+        <v>0.02677063067368167</v>
       </c>
       <c r="R93" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.312901894251506</v>
+        <v>0.243342399597168</v>
       </c>
       <c r="B94" t="n">
-        <v>0.03793291036939804</v>
+        <v>0.007164298913246956</v>
       </c>
       <c r="C94" t="n">
-        <v>0.02219875653584798</v>
+        <v>0.01042556762695312</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0002946022999238233</v>
+        <v>0.0008956256254869433</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8998242792348353</v>
+        <v>0.1647118339206403</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1233679835886449</v>
+        <v>0.2446807396705947</v>
       </c>
       <c r="G94" t="n">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I94" t="n">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="J94" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="K94" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.8998242792348353), 'learning_rate': np.float64(0.12336798358864491), 'max_bins': 254, 'max_depth': 6, 'max_iter': 226, 'max_leaf_nodes': 84, 'min_samples_leaf': 2}</t>
+          <t>{'l2_regularization': np.float64(0.16471183392064026), 'learning_rate': np.float64(0.24468073967059473), 'max_bins': 179, 'max_depth': 3, 'max_iter': 86, 'max_leaf_nodes': 33, 'min_samples_leaf': 9}</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>0.54</v>
+        <v>0.5125</v>
       </c>
       <c r="N94" t="n">
-        <v>0.58</v>
+        <v>0.5625</v>
       </c>
       <c r="O94" t="n">
-        <v>0.5725</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P94" t="n">
-        <v>0.5641666666666667</v>
+        <v>0.545</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01736055554666635</v>
+        <v>0.02300362290307047</v>
       </c>
       <c r="R94" t="n">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.6553952693939209</v>
+        <v>1.103449424107869</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05996609470574595</v>
+        <v>0.01328817690586009</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01441216468811035</v>
+        <v>0.01996596654256185</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002052045991138841</v>
+        <v>0.0002191684825050303</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3756693500851435</v>
+        <v>0.9159918138402399</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2189738469852498</v>
+        <v>0.1625436541073991</v>
       </c>
       <c r="G95" t="n">
-        <v>217</v>
+        <v>148</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I95" t="n">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="J95" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="K95" t="n">
         <v>18</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.37566935008514346), 'learning_rate': np.float64(0.2189738469852498), 'max_bins': 217, 'max_depth': 5, 'max_iter': 96, 'max_leaf_nodes': 72, 'min_samples_leaf': 18}</t>
+          <t>{'l2_regularization': np.float64(0.9159918138402399), 'learning_rate': np.float64(0.1625436541073991), 'max_bins': 148, 'max_depth': 10, 'max_iter': 153, 'max_leaf_nodes': 24, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>0.5075</v>
+        <v>0.545</v>
       </c>
       <c r="N95" t="n">
-        <v>0.5425</v>
+        <v>0.54</v>
       </c>
       <c r="O95" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="P95" t="n">
-        <v>0.5383333333333332</v>
+        <v>0.5499999999999999</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.02365844927763065</v>
+        <v>0.01080123449734639</v>
       </c>
       <c r="R95" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.473033666610718</v>
+        <v>2.7267005443573</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01024978958210537</v>
+        <v>0.06756889115135432</v>
       </c>
       <c r="C96" t="n">
-        <v>0.02895617485046387</v>
+        <v>0.04825393358866373</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004293678017660434</v>
+        <v>0.01087400669903553</v>
       </c>
       <c r="E96" t="n">
-        <v>0.356332645812275</v>
+        <v>0.1995031783487543</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01475509796256184</v>
+        <v>0.2667235414421127</v>
       </c>
       <c r="G96" t="n">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="H96" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I96" t="n">
-        <v>225</v>
+        <v>394</v>
       </c>
       <c r="J96" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.356332645812275), 'learning_rate': np.float64(0.014755097962561838), 'max_bins': 206, 'max_depth': 10, 'max_iter': 225, 'max_leaf_nodes': 11, 'min_samples_leaf': 4}</t>
+          <t>{'l2_regularization': np.float64(0.1995031783487543), 'learning_rate': np.float64(0.2667235414421127), 'max_bins': 157, 'max_depth': 6, 'max_iter': 394, 'max_leaf_nodes': 37, 'min_samples_leaf': 13}</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.525</v>
       </c>
       <c r="N96" t="n">
-        <v>0.595</v>
+        <v>0.5675</v>
       </c>
       <c r="O96" t="n">
-        <v>0.5675</v>
+        <v>0.5725</v>
       </c>
       <c r="P96" t="n">
-        <v>0.5741666666666667</v>
+        <v>0.555</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.01504622507105646</v>
+        <v>0.02131118642090736</v>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3.938723087310791</v>
+        <v>2.082867463429769</v>
       </c>
       <c r="B97" t="n">
-        <v>0.04624993378384244</v>
+        <v>0.06249142598500004</v>
       </c>
       <c r="C97" t="n">
-        <v>0.05082488059997559</v>
+        <v>0.03589089711507162</v>
       </c>
       <c r="D97" t="n">
-        <v>0.002142116575944263</v>
+        <v>0.001169472534811544</v>
       </c>
       <c r="E97" t="n">
-        <v>0.06105879292924654</v>
+        <v>0.4958003729495196</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1287608214421015</v>
+        <v>0.2095059628673173</v>
       </c>
       <c r="G97" t="n">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="H97" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I97" t="n">
-        <v>471</v>
+        <v>260</v>
       </c>
       <c r="J97" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="K97" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.06105879292924654), 'learning_rate': np.float64(0.12876082144210155), 'max_bins': 112, 'max_depth': 13, 'max_iter': 471, 'max_leaf_nodes': 84, 'min_samples_leaf': 1}</t>
+          <t>{'l2_regularization': np.float64(0.4958003729495196), 'learning_rate': np.float64(0.20950596286731726), 'max_bins': 186, 'max_depth': 9, 'max_iter': 260, 'max_leaf_nodes': 42, 'min_samples_leaf': 18}</t>
         </is>
       </c>
       <c r="M97" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N97" t="n">
         <v>0.5675</v>
       </c>
-      <c r="N97" t="n">
-        <v>0.57</v>
-      </c>
       <c r="O97" t="n">
-        <v>0.5625</v>
+        <v>0.5825</v>
       </c>
       <c r="P97" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.5583333333333333</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.003118047822311601</v>
+        <v>0.02435273199367076</v>
       </c>
       <c r="R97" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.590702692667643</v>
+        <v>0.5034224192301432</v>
       </c>
       <c r="B98" t="n">
-        <v>0.002882496544350747</v>
+        <v>0.02712552759554265</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0256350835164388</v>
+        <v>0.02432703971862793</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004317727170130423</v>
+        <v>0.001118124538043924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.515316188624631</v>
+        <v>0.7507546691631302</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2865716153427167</v>
+        <v>0.1175485146523846</v>
       </c>
       <c r="G98" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="H98" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" t="n">
+        <v>201</v>
+      </c>
+      <c r="J98" t="n">
+        <v>57</v>
+      </c>
+      <c r="K98" t="n">
         <v>7</v>
       </c>
-      <c r="I98" t="n">
-        <v>174</v>
-      </c>
-      <c r="J98" t="n">
-        <v>83</v>
-      </c>
-      <c r="K98" t="n">
-        <v>14</v>
-      </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.515316188624631), 'learning_rate': np.float64(0.2865716153427167), 'max_bins': 200, 'max_depth': 7, 'max_iter': 174, 'max_leaf_nodes': 83, 'min_samples_leaf': 14}</t>
+          <t>{'l2_regularization': np.float64(0.7507546691631302), 'learning_rate': np.float64(0.11754851465238457), 'max_bins': 101, 'max_depth': 3, 'max_iter': 201, 'max_leaf_nodes': 57, 'min_samples_leaf': 7}</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>0.5575</v>
+        <v>0.5175</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5425</v>
+        <v>0.5625</v>
       </c>
       <c r="O98" t="n">
-        <v>0.59</v>
+        <v>0.545</v>
       </c>
       <c r="P98" t="n">
-        <v>0.5633333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01982562875561719</v>
+        <v>0.01852175897574408</v>
       </c>
       <c r="R98" t="n">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4.335849285125732</v>
+        <v>1.915807644526164</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1025997290536995</v>
+        <v>0.05559961858409992</v>
       </c>
       <c r="C99" t="n">
-        <v>0.05219356218973795</v>
+        <v>0.03168137868245443</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0003775638218386861</v>
+        <v>0.003891870330454877</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2747286690681179</v>
+        <v>0.03415603715554771</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1895840605962147</v>
+        <v>0.2900649274323052</v>
       </c>
       <c r="G99" t="n">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="H99" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I99" t="n">
-        <v>446</v>
+        <v>314</v>
       </c>
       <c r="J99" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="K99" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.2747286690681179), 'learning_rate': np.float64(0.18958406059621472), 'max_bins': 177, 'max_depth': 14, 'max_iter': 446, 'max_leaf_nodes': 49, 'min_samples_leaf': 7}</t>
+          <t>{'l2_regularization': np.float64(0.034156037155547714), 'learning_rate': np.float64(0.2900649274323052), 'max_bins': 153, 'max_depth': 11, 'max_iter': 314, 'max_leaf_nodes': 76, 'min_samples_leaf': 9}</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>0.555</v>
+        <v>0.525</v>
       </c>
       <c r="N99" t="n">
-        <v>0.585</v>
+        <v>0.5625</v>
       </c>
       <c r="O99" t="n">
-        <v>0.5575</v>
+        <v>0.5825</v>
       </c>
       <c r="P99" t="n">
-        <v>0.5658333333333334</v>
+        <v>0.5566666666666666</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01359125535858338</v>
+        <v>0.02383391607679182</v>
       </c>
       <c r="R99" t="n">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8284289042154948</v>
+        <v>2.056650400161743</v>
       </c>
       <c r="B100" t="n">
-        <v>0.093368477036561</v>
+        <v>0.05856857569097194</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01867341995239258</v>
+        <v>0.02965283393859863</v>
       </c>
       <c r="D100" t="n">
-        <v>0.002466809163122601</v>
+        <v>0.0002889338746928527</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2028370120673053</v>
+        <v>0.1477302949837728</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07862952824217312</v>
+        <v>0.05943859142032185</v>
       </c>
       <c r="G100" t="n">
-        <v>121</v>
+        <v>225</v>
       </c>
       <c r="H100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>110</v>
+        <v>420</v>
       </c>
       <c r="J100" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.2028370120673053), 'learning_rate': np.float64(0.07862952824217312), 'max_bins': 121, 'max_depth': 6, 'max_iter': 110, 'max_leaf_nodes': 66, 'min_samples_leaf': 10}</t>
+          <t>{'l2_regularization': np.float64(0.14773029498377277), 'learning_rate': np.float64(0.05943859142032185), 'max_bins': 225, 'max_depth': 4, 'max_iter': 420, 'max_leaf_nodes': 83, 'min_samples_leaf': 3}</t>
         </is>
       </c>
       <c r="M100" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O100" t="n">
         <v>0.5425</v>
       </c>
-      <c r="N100" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.575</v>
-      </c>
       <c r="P100" t="n">
-        <v>0.5658333333333333</v>
+        <v>0.5491666666666667</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01662494778604999</v>
+        <v>0.01504622507105646</v>
       </c>
       <c r="R100" t="n">
-        <v>25</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8380266825358073</v>
+        <v>1.426269133885701</v>
       </c>
       <c r="B101" t="n">
-        <v>0.06350345263147726</v>
+        <v>0.0538127141770272</v>
       </c>
       <c r="C101" t="n">
-        <v>0.02372034390767415</v>
+        <v>0.03116687138875325</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005405124959334487</v>
+        <v>0.008514777837677902</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6461311392977932</v>
+        <v>0.4004408184863932</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06774410099904402</v>
+        <v>0.08308920447694354</v>
       </c>
       <c r="G101" t="n">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="H101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I101" t="n">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J101" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K101" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>{'l2_regularization': np.float64(0.6461311392977932), 'learning_rate': np.float64(0.06774410099904402), 'max_bins': 172, 'max_depth': 4, 'max_iter': 238, 'max_leaf_nodes': 77, 'min_samples_leaf': 14}</t>
+          <t>{'l2_regularization': np.float64(0.40044081848639324), 'learning_rate': np.float64(0.08308920447694354), 'max_bins': 132, 'max_depth': 7, 'max_iter': 262, 'max_leaf_nodes': 60, 'min_samples_leaf': 19}</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>0.515</v>
+        <v>0.5075</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5725</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="O101" t="n">
-        <v>0.5625</v>
+        <v>0.57</v>
       </c>
       <c r="P101" t="n">
-        <v>0.5499999999999999</v>
+        <v>0.5474999999999999</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.02508319490548735</v>
+        <v>0.02835783254528926</v>
       </c>
       <c r="R101" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
